--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD9F72-58B1-44BF-8C18-A6392344C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D274548-8998-4445-87B1-26F7B6BB5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="482">
   <si>
     <t>CPF</t>
   </si>
@@ -1476,6 +1476,27 @@
   </si>
   <si>
     <t>DATA_ACIONAMENTO_FIM</t>
+  </si>
+  <si>
+    <t>ID_SUB_AC</t>
+  </si>
+  <si>
+    <t>NOME_SUB_AC</t>
+  </si>
+  <si>
+    <t>CODIGO DO SUB ACIONAMENTO CADASTRADO</t>
+  </si>
+  <si>
+    <t>NOME DO SUB ACIONAMENTO CADASTRADO</t>
+  </si>
+  <si>
+    <t>tbsituacao_cobranca</t>
+  </si>
+  <si>
+    <t>SITUACAO_ID</t>
+  </si>
+  <si>
+    <t>tbdevedor_acionamento.SITUACAO_ID_AUX cruzando com o tbsituacao_cobranca.SITUACAO_ID</t>
   </si>
 </sst>
 </file>
@@ -7502,10 +7523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7513,8 +7534,8 @@
     <col min="1" max="1" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -7528,19 +7549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="29" t="s">
         <v>190</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -7572,15 +7593,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37">
         <v>10</v>
       </c>
+      <c r="E2" s="37"/>
       <c r="F2" s="37" t="s">
         <v>89</v>
       </c>
@@ -7606,15 +7629,17 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37">
         <v>50</v>
       </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -7626,15 +7651,17 @@
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37">
         <v>50</v>
       </c>
+      <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
@@ -7646,15 +7673,17 @@
       <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37">
         <v>8</v>
       </c>
+      <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -7666,15 +7695,17 @@
       <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
         <v>8</v>
       </c>
+      <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -7686,15 +7717,17 @@
       <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <v>8</v>
       </c>
+      <c r="E7" s="37"/>
       <c r="F7" s="37" t="s">
         <v>89</v>
       </c>
@@ -7716,15 +7749,17 @@
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37">
         <v>20</v>
       </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="37" t="s">
         <v>89</v>
       </c>
@@ -7746,15 +7781,17 @@
       <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37">
         <v>20</v>
       </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
         <v>89</v>
       </c>
@@ -7776,15 +7813,17 @@
       <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37">
         <v>100</v>
       </c>
+      <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
         <v>89</v>
       </c>
@@ -7806,15 +7845,17 @@
       <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37">
         <v>20</v>
       </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
         <v>89</v>
       </c>
@@ -7836,15 +7877,17 @@
       <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37">
         <v>50</v>
       </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
         <v>89</v>
       </c>
@@ -7866,15 +7909,17 @@
       <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
+      <c r="A13" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37">
+        <v>50</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
         <v>89</v>
       </c>
@@ -7885,26 +7930,30 @@
         <v>465</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="37"/>
+        <v>480</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>481</v>
+      </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
+      <c r="A14" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37">
+        <v>50</v>
+      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
         <v>89</v>
       </c>
@@ -7915,26 +7964,28 @@
         <v>465</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>474</v>
+        <v>37</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11</v>
-      </c>
+    <row r="15" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37">
+        <v>8</v>
+      </c>
+      <c r="E15" s="37"/>
       <c r="F15" s="37" t="s">
         <v>89</v>
       </c>
@@ -7948,12 +7999,76 @@
         <v>466</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37">
+        <v>8</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37">
+        <v>11</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D274548-8998-4445-87B1-26F7B6BB5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79917BF8-5EB0-4F7E-BDA6-70CC0E761FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="483">
   <si>
     <t>CPF</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>tbdevedor_acionamento.SITUACAO_ID_AUX cruzando com o tbsituacao_cobranca.SITUACAO_ID</t>
+  </si>
+  <si>
+    <t>PLATAFORMA OU FONTE ORIGEM DO DADO</t>
   </si>
 </sst>
 </file>
@@ -7523,10 +7526,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8069,6 +8072,30 @@
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37">
+        <v>30</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3304D04-9DAD-4232-BED7-56E687E377A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0710F2-BB1B-4EDD-847A-5AB09437FAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
     <sheet name="ACIONA_DISCADOR" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="ACIONA_CRM" sheetId="2" r:id="rId4"/>
-    <sheet name="ACORDOS" sheetId="7" r:id="rId5"/>
-    <sheet name="TELEFONE" sheetId="16" r:id="rId6"/>
-    <sheet name="EMAIL" sheetId="17" r:id="rId7"/>
-    <sheet name="MULTICANAIS" sheetId="9" r:id="rId8"/>
+    <sheet name="ACORDOS" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="TELEFONE" sheetId="16" state="hidden" r:id="rId6"/>
+    <sheet name="EMAIL" sheetId="17" state="hidden" r:id="rId7"/>
+    <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
-    <sheet name="CARTEIRA ATIVA" sheetId="1" r:id="rId10"/>
+    <sheet name="CARTEIRA ATIVA" sheetId="1" state="hidden" r:id="rId10"/>
     <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId11"/>
-    <sheet name="PAGAMENTOS" sheetId="8" r:id="rId12"/>
+    <sheet name="PAGAMENTOS" sheetId="8" state="hidden" r:id="rId12"/>
     <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
     <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId14"/>
     <sheet name="PESQUISA" sheetId="5" state="hidden" r:id="rId15"/>
@@ -8002,8 +8002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8613,8 +8613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC8D03-6444-491A-9277-3635D6DFAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACA20CB-2631-48EF-B68E-2C4F514A1F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="508">
   <si>
     <t>CPF</t>
   </si>
@@ -1557,6 +1557,24 @@
   </si>
   <si>
     <t>DATA_VENCIMENTO_ANTIGO</t>
+  </si>
+  <si>
+    <t>DATA_INSERT</t>
+  </si>
+  <si>
+    <t>MOMENTO QUE O DADO FOI INSERIDO NA TABELA</t>
+  </si>
+  <si>
+    <t>DATETIMENOW()</t>
+  </si>
+  <si>
+    <t>ACIONAMENTO_ID</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>CÓDIGO ÚNICO DO ACIONAMENTO NO CRM</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1877,12 +1895,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2016,10 +2071,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2707,17 +2771,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:38" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -3507,17 +3571,17 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -4019,9 +4083,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4316,7 +4382,7 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="35" t="s">
@@ -4328,7 +4394,9 @@
       <c r="D9" s="35">
         <v>20</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="35" t="s">
+        <v>506</v>
+      </c>
       <c r="F9" s="35" t="s">
         <v>87</v>
       </c>
@@ -4533,19 +4601,45 @@
         <v>30</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
     </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="35">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -8098,9 +8192,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8365,18 +8461,20 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>46</v>
+        <v>505</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>209</v>
+        <v>507</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D8" s="35">
-        <v>20</v>
-      </c>
-      <c r="E8" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>506</v>
+      </c>
       <c r="F8" s="35" t="s">
         <v>87</v>
       </c>
@@ -8390,7 +8488,7 @@
         <v>448</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
@@ -8398,17 +8496,17 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
-        <v>133</v>
+      <c r="A9" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D9" s="35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35" t="s">
@@ -8421,10 +8519,10 @@
         <v>447</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>452</v>
+        <v>1</v>
       </c>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
@@ -8432,17 +8530,17 @@
       <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>134</v>
+      <c r="A10" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D10" s="35">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
@@ -8458,7 +8556,7 @@
         <v>451</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
@@ -8467,16 +8565,16 @@
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D11" s="35">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35" t="s">
@@ -8489,10 +8587,10 @@
         <v>447</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
@@ -8501,16 +8599,16 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D12" s="35">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
@@ -8526,7 +8624,7 @@
         <v>453</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -8535,16 +8633,16 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>457</v>
+        <v>53</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D13" s="35">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
@@ -8557,30 +8655,28 @@
         <v>447</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>463</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D14" s="35">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
@@ -8596,25 +8692,27 @@
         <v>461</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="35"/>
+        <v>462</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>463</v>
+      </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
-        <v>47</v>
+        <v>458</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D15" s="35">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
@@ -8627,10 +8725,10 @@
         <v>447</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
@@ -8639,10 +8737,10 @@
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>471</v>
@@ -8664,7 +8762,7 @@
         <v>448</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>456</v>
+        <v>29</v>
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
@@ -8673,16 +8771,16 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D17" s="35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
@@ -8698,7 +8796,7 @@
         <v>448</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
@@ -8707,31 +8805,91 @@
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>468</v>
       </c>
       <c r="D18" s="35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="G18" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>450</v>
+      </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
     </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="35">
+        <v>30</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="35">
+        <v>19</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8739,9 +8897,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9014,7 +9174,9 @@
       <c r="D8" s="35">
         <v>19</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="35" t="s">
+        <v>506</v>
+      </c>
       <c r="F8" s="35" t="s">
         <v>87</v>
       </c>
@@ -9036,7 +9198,7 @@
       <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="35" t="s">
@@ -9253,19 +9415,45 @@
         <v>30</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
     </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="35">
+        <v>19</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -9371,17 +9559,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -9744,17 +9932,17 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -10514,17 +10702,17 @@
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001DBFD-F32A-4782-B7CC-05F2702D5F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A701F25-DCBA-49AA-BFDE-10925163590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -1970,7 +1970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2115,9 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,25 +2530,25 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3095,9 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3690,7 +3685,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3699,7 +3694,7 @@
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
@@ -4049,7 +4044,7 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
     </row>
-    <row r="11" spans="1:14" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>116</v>
       </c>
@@ -4172,14 +4167,14 @@
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7742,7 +7737,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8447,7 +8442,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A701F25-DCBA-49AA-BFDE-10925163590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F50079-73DF-4F93-949C-6515459DCCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="527">
   <si>
     <t>CPF</t>
   </si>
@@ -1617,6 +1617,21 @@
   </si>
   <si>
     <t>tbsituacao_email</t>
+  </si>
+  <si>
+    <t>EVENTO_ID</t>
+  </si>
+  <si>
+    <t>ID DO ACIONAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>DATA DE ALTERAÇÃO DE INFORMAÇÕES VINCULADAS AO EMAIL</t>
+  </si>
+  <si>
+    <t>ID DO ACORDO NO DW</t>
+  </si>
+  <si>
+    <t>ID DO PAGAMENTO NO DW</t>
   </si>
 </sst>
 </file>
@@ -2527,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,11 +2562,9 @@
     <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>175</v>
       </c>
@@ -2588,91 +2601,81 @@
       <c r="L1" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
+      <c r="M1" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>262</v>
+        <v>526</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>471</v>
-      </c>
+      <c r="E2" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D3" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="H3" s="34" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D4" s="34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
@@ -2686,25 +2689,23 @@
         <v>128</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D5" s="34">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34" t="s">
@@ -2718,19 +2719,17 @@
         <v>128</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>451</v>
@@ -2750,19 +2749,17 @@
         <v>128</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>451</v>
@@ -2772,37 +2769,33 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>428</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
@@ -2815,22 +2808,20 @@
         <v>429</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>46</v>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>452</v>
@@ -2838,9 +2829,7 @@
       <c r="D9" s="34">
         <v>19</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>488</v>
-      </c>
+      <c r="E9" s="34"/>
       <c r="F9" s="34" t="s">
         <v>86</v>
       </c>
@@ -2854,25 +2843,23 @@
         <v>470</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>3</v>
+        <v>467</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>480</v>
+    </row>
+    <row r="10" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>473</v>
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D10" s="34">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -2888,25 +2875,23 @@
         <v>470</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>468</v>
+        <v>3</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D11" s="34">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
@@ -2919,28 +2904,26 @@
         <v>429</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>474</v>
+        <v>56</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" s="34">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
@@ -2953,28 +2936,26 @@
         <v>429</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>478</v>
+        <v>37</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D13" s="34">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -2987,28 +2968,26 @@
         <v>429</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>253</v>
+        <v>477</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D14" s="34">
-        <v>9.1999999999999993</v>
+        <v>100</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
@@ -3021,68 +3000,97 @@
         <v>429</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>446</v>
+        <v>253</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D15" s="34">
-        <v>30</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>472</v>
+      </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>485</v>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D16" s="34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="45" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F15:J15"/>
+  <mergeCells count="3">
     <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3682,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3814,33 +3822,31 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>177</v>
+        <v>524</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D4" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="H4" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>4</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
@@ -3848,16 +3854,16 @@
     </row>
     <row r="5" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D5" s="34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34" t="s">
@@ -3871,7 +3877,7 @@
         <v>128</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -3880,16 +3886,16 @@
     </row>
     <row r="6" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D6" s="34">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
@@ -3903,7 +3909,7 @@
         <v>128</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -3912,10 +3918,10 @@
     </row>
     <row r="7" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>451</v>
@@ -3935,41 +3941,39 @@
         <v>128</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
-        <v>46</v>
+    <row r="8" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>428</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>514</v>
+        <v>128</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
@@ -3977,17 +3981,17 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>97</v>
+      <c r="A9" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>510</v>
+        <v>205</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D9" s="34">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34" t="s">
@@ -4003,7 +4007,7 @@
         <v>514</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -4012,16 +4016,16 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>519</v>
+        <v>97</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D10" s="34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -4034,32 +4038,30 @@
         <v>429</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
     </row>
-    <row r="11" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>116</v>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D11" s="34">
-        <v>20</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>517</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
         <v>86</v>
       </c>
@@ -4070,30 +4072,32 @@
         <v>429</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>518</v>
+        <v>436</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D12" s="34">
-        <v>30</v>
-      </c>
-      <c r="E12" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>517</v>
+      </c>
       <c r="F12" s="34" t="s">
         <v>86</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>514</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -4116,10 +4120,10 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>450</v>
@@ -4128,34 +4132,42 @@
         <v>30</v>
       </c>
       <c r="E13" s="34"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="G13" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>485</v>
+      <c r="A14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D14" s="34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="45" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
@@ -4166,21 +4178,47 @@
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="34">
+        <v>19</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F13:J13"/>
     <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7734,10 +7772,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7804,85 +7842,81 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
+      <c r="A2" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>215</v>
+        <v>523</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="D2" s="34">
-        <v>10</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
-        <v>454</v>
-      </c>
+      <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>450</v>
+        <v>321</v>
       </c>
       <c r="D3" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="H3" s="34" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="34" t="s">
+        <v>454</v>
+      </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D4" s="34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
@@ -7896,7 +7930,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
@@ -7905,16 +7939,16 @@
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D5" s="34">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34" t="s">
@@ -7928,7 +7962,7 @@
         <v>128</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -7937,10 +7971,10 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>451</v>
@@ -7960,7 +7994,7 @@
         <v>128</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -7969,10 +8003,10 @@
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>451</v>
@@ -7982,19 +8016,17 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>428</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>430</v>
+        <v>128</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -8003,20 +8035,18 @@
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="34">
-        <v>19</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>488</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
         <v>86</v>
       </c>
@@ -8030,7 +8060,7 @@
         <v>430</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
@@ -8039,10 +8069,10 @@
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>489</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>452</v>
@@ -8064,7 +8094,7 @@
         <v>430</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1</v>
+        <v>487</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -8072,11 +8102,11 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>129</v>
+      <c r="A10" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>452</v>
@@ -8095,10 +8125,10 @@
         <v>429</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -8106,17 +8136,17 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>130</v>
+      <c r="A11" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D11" s="34">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
@@ -8132,7 +8162,7 @@
         <v>433</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -8141,16 +8171,16 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D12" s="34">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
@@ -8163,10 +8193,10 @@
         <v>429</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>437</v>
+        <v>37</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -8175,16 +8205,16 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D13" s="34">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -8200,7 +8230,7 @@
         <v>435</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -8209,16 +8239,16 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D14" s="34">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
@@ -8231,30 +8261,28 @@
         <v>429</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>445</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D15" s="34">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34" t="s">
@@ -8270,25 +8298,27 @@
         <v>443</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="34"/>
+        <v>444</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>445</v>
+      </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>47</v>
+        <v>440</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D16" s="34">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34" t="s">
@@ -8301,10 +8331,10 @@
         <v>429</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
@@ -8313,10 +8343,10 @@
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>453</v>
@@ -8338,7 +8368,7 @@
         <v>430</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
@@ -8347,16 +8377,16 @@
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D18" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="34" t="s">
@@ -8372,7 +8402,7 @@
         <v>430</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -8381,56 +8411,91 @@
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D19" s="34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="G19" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>432</v>
+      </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>485</v>
+      <c r="A20" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D20" s="34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="45" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" s="34">
+        <v>19</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="3">
     <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8439,10 +8504,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8508,65 +8573,61 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
+      <c r="A2" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" s="34">
         <v>19</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="E2" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>177</v>
+        <v>456</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D3" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="34"/>
+        <v>86</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>428</v>
+      </c>
       <c r="H3" s="34" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>128</v>
+        <v>455</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -8575,16 +8636,16 @@
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D4" s="34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
@@ -8598,7 +8659,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
@@ -8607,16 +8668,16 @@
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D5" s="34">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34" t="s">
@@ -8630,7 +8691,7 @@
         <v>128</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -8639,10 +8700,10 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>451</v>
@@ -8662,19 +8723,19 @@
         <v>128</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>451</v>
@@ -8684,41 +8745,37 @@
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>428</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="34">
-        <v>19</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>488</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="34" t="s">
         <v>86</v>
       </c>
@@ -8732,19 +8789,19 @@
         <v>455</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>46</v>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>452</v>
@@ -8766,25 +8823,25 @@
         <v>455</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>465</v>
+    <row r="10" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>466</v>
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D10" s="34">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -8800,7 +8857,7 @@
         <v>455</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -8809,16 +8866,16 @@
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="34">
         <v>50</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" s="34">
-        <v>19</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
@@ -8831,10 +8888,10 @@
         <v>429</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
@@ -8843,10 +8900,10 @@
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>453</v>
@@ -8868,7 +8925,7 @@
         <v>469</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -8877,16 +8934,16 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>458</v>
+        <v>49</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D13" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34" t="s">
@@ -8899,10 +8956,10 @@
         <v>429</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -8911,16 +8968,16 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>252</v>
+        <v>459</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D14" s="34">
-        <v>9.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34" t="s">
@@ -8936,7 +8993,7 @@
         <v>455</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -8945,56 +9002,91 @@
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>446</v>
+        <v>252</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D15" s="34">
-        <v>30</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>485</v>
+      <c r="A16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D16" s="34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="45" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="34">
+        <v>19</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F15:J15"/>
+  <mergeCells count="3">
     <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F50079-73DF-4F93-949C-6515459DCCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6F3EA-35D0-4A00-96ED-78B7DFB79091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="528">
   <si>
     <t>CPF</t>
   </si>
@@ -1553,9 +1553,6 @@
     <t>tbtipo_fone</t>
   </si>
   <si>
-    <t>CÓDIGO DO STATUS DO FONE</t>
-  </si>
-  <si>
     <t>0 = POSITIVO | 1 = NEGATIVO | 2 INCONSISTENTE | 5 = BLACKLIST</t>
   </si>
   <si>
@@ -1571,9 +1568,6 @@
     <t>TELEFONE CADASTRADO</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>SMALLINT</t>
   </si>
   <si>
@@ -1632,6 +1626,15 @@
   </si>
   <si>
     <t>ID DO PAGAMENTO NO DW</t>
+  </si>
+  <si>
+    <t>STATUS DO TELEFONE</t>
+  </si>
+  <si>
+    <t>tbcontratante</t>
+  </si>
+  <si>
+    <t>contratante_id</t>
   </si>
 </sst>
 </file>
@@ -2607,10 +2610,10 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>452</v>
@@ -2622,7 +2625,7 @@
         <v>488</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -3100,7 +3103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3167,10 +3172,10 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>452</v>
@@ -3182,7 +3187,7 @@
         <v>488</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -3217,7 +3222,7 @@
         <v>429</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>460</v>
@@ -3251,7 +3256,7 @@
         <v>429</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>497</v>
@@ -3413,7 +3418,7 @@
         <v>429</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J9" s="34" t="s">
         <v>1</v>
@@ -3428,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>450</v>
@@ -3447,7 +3452,7 @@
         <v>429</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>432</v>
@@ -3515,7 +3520,7 @@
         <v>429</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>104</v>
@@ -3530,16 +3535,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="34">
+        <v>30</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>500</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="D13" s="34">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>501</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>86</v>
@@ -3551,7 +3556,7 @@
         <v>429</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>11</v>
@@ -3584,7 +3589,7 @@
         <v>429</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>491</v>
@@ -3602,13 +3607,13 @@
         <v>492</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D15" s="34">
         <v>2</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>86</v>
@@ -3620,7 +3625,7 @@
         <v>429</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>496</v>
@@ -3685,16 +3690,15 @@
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3762,10 +3766,10 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>452</v>
@@ -3777,7 +3781,7 @@
         <v>488</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -3793,7 +3797,7 @@
         <v>460</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>453</v>
@@ -3812,7 +3816,7 @@
         <v>429</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>460</v>
@@ -3824,10 +3828,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>453</v>
@@ -3835,7 +3839,9 @@
       <c r="D4" s="34">
         <v>19</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="34">
+        <v>19</v>
+      </c>
       <c r="F4" s="34" t="s">
         <v>86</v>
       </c>
@@ -3981,17 +3987,17 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44" t="s">
-        <v>46</v>
+      <c r="A9" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D9" s="34">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34" t="s">
@@ -4004,10 +4010,10 @@
         <v>429</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1</v>
+        <v>527</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -4015,17 +4021,17 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>97</v>
+      <c r="A10" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>510</v>
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D10" s="34">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34" t="s">
@@ -4038,10 +4044,10 @@
         <v>429</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -4050,16 +4056,16 @@
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>519</v>
+        <v>97</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D11" s="34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
@@ -4072,32 +4078,30 @@
         <v>429</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
-    <row r="12" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>116</v>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D12" s="34">
-        <v>20</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>517</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="F12" s="34" t="s">
         <v>86</v>
       </c>
@@ -4108,30 +4112,32 @@
         <v>429</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>518</v>
+        <v>436</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>450</v>
       </c>
       <c r="D13" s="34">
-        <v>30</v>
-      </c>
-      <c r="E13" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>515</v>
+      </c>
       <c r="F13" s="34" t="s">
         <v>86</v>
       </c>
@@ -4142,10 +4148,10 @@
         <v>429</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>104</v>
+        <v>516</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -4154,10 +4160,10 @@
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>450</v>
@@ -4166,34 +4172,42 @@
         <v>30</v>
       </c>
       <c r="E14" s="34"/>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>485</v>
+      <c r="A15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D15" s="34">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="45" t="s">
-        <v>486</v>
+        <v>86</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
@@ -4204,21 +4218,47 @@
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="34">
+        <v>19</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F14:J14"/>
     <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7774,7 +7814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
@@ -7843,10 +7883,10 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>452</v>
@@ -7858,7 +7898,7 @@
         <v>488</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -8574,10 +8614,10 @@
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>452</v>
@@ -8589,7 +8629,7 @@
         <v>488</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B672F9-A7E3-4FCA-B5D9-7689E9761D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A37A68-2369-4696-93D9-074112DE3B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="564">
   <si>
     <t>CPF</t>
   </si>
@@ -1769,6 +1769,41 @@
   </si>
   <si>
     <t>( 9 , 53 )</t>
+  </si>
+  <si>
+    <t>HOST (IP) DO BANCO ORIGEM</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>NOME DO BANCO DE DADOS ORIGEM</t>
+  </si>
+  <si>
+    <t>A DEFINIR</t>
+  </si>
+  <si>
+    <t>SELECT  TOP 1000
+CAST(A.DATA AS date) AS DATA,
+A.CONT_ID AS COD_CRM,
+A.ACIONAMENTO_ID AS ACIONAMENTO_ID,
+A.DEVEDOR_ID AS ID_KEY,
+B.COBRADOR_ID AS ID_CRM_OPERADOR,
+B.NOME AS NOME_CRM_OPERADOR,
+A.ACAO_ID AS ID_AC,
+C.DESCRICAO AS NOME_AC,
+A.SITUACAO_ID_AUX AS ID_SUB_AC,
+D.NOME AS NOME_SUB_AC,
+A.DATA AS INICIO_CHAMADA,
+A.DATA_ACIONAMENTO_FIM AS FIM_CHAMADA,
+A.FONE AS TELEFONE,
+'A DEFINIR' AS INSTANCIA,
+'A DEFINIR' AS BANCO,
+'ACTYON' AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID</t>
   </si>
 </sst>
 </file>
@@ -2247,6 +2282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2258,12 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2761,13 +2796,13 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -3224,13 +3259,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -3250,13 +3285,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3355,13 +3390,13 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -3781,13 +3816,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
@@ -3807,13 +3842,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -3843,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3930,14 +3965,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="M2" s="48" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="M2" s="43" t="s">
         <v>557</v>
       </c>
     </row>
@@ -3966,7 +4001,7 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -3993,7 +4028,7 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -4020,7 +4055,7 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="47"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
@@ -4047,7 +4082,7 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -4077,7 +4112,7 @@
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="47"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
@@ -4110,7 +4145,7 @@
       <c r="J8" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
@@ -4140,7 +4175,7 @@
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="47"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
@@ -4170,7 +4205,7 @@
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
@@ -4200,7 +4235,7 @@
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="47"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
@@ -4230,7 +4265,7 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="47"/>
+      <c r="M12" s="44"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
@@ -4260,7 +4295,7 @@
       <c r="J13" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M13" s="47"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -4290,7 +4325,7 @@
       <c r="J14" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M14" s="47"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
@@ -4320,7 +4355,7 @@
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="47"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
@@ -4350,7 +4385,7 @@
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="47"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
@@ -4380,7 +4415,7 @@
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="47"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
@@ -4410,7 +4445,7 @@
       <c r="J18" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="M18" s="47"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
@@ -4440,7 +4475,7 @@
       <c r="J19" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="M19" s="47"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
@@ -4470,7 +4505,7 @@
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="47"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
@@ -4500,7 +4535,7 @@
       <c r="J21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="M21" s="47"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
@@ -4530,7 +4565,7 @@
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="47"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
@@ -4560,7 +4595,7 @@
       <c r="J23" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M23" s="47"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
@@ -4590,7 +4625,7 @@
       <c r="J24" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="M24" s="47"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
@@ -4620,7 +4655,7 @@
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="47"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
@@ -4650,7 +4685,7 @@
       <c r="J26" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="M26" s="47"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
@@ -4680,7 +4715,7 @@
       <c r="J27" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M27" s="47"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
@@ -4710,7 +4745,7 @@
       <c r="J28" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M28" s="47"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
@@ -4740,7 +4775,7 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="47"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
@@ -4770,7 +4805,7 @@
       <c r="J30" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M30" s="47"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
@@ -4800,7 +4835,7 @@
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="47"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
@@ -4830,7 +4865,7 @@
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="47"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
@@ -4860,7 +4895,7 @@
       <c r="J33" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M33" s="47"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
@@ -4890,7 +4925,7 @@
       <c r="J34" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M34" s="47"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
@@ -4920,7 +4955,7 @@
       <c r="J35" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="M35" s="47"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
@@ -4950,7 +4985,7 @@
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="47"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
@@ -4980,7 +5015,7 @@
       <c r="J37" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M37" s="47"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
@@ -5010,7 +5045,7 @@
       <c r="J38" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M38" s="47"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
@@ -5040,7 +5075,7 @@
       <c r="J39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M39" s="47"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
@@ -5070,7 +5105,7 @@
       <c r="J40" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="M40" s="47"/>
+      <c r="M40" s="44"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
@@ -5100,7 +5135,7 @@
       <c r="J41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M41" s="47"/>
+      <c r="M41" s="44"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
@@ -5130,7 +5165,7 @@
       <c r="J42" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="M42" s="47"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
@@ -5145,14 +5180,14 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="M43" s="47"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
@@ -5167,14 +5202,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="M44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8284,7 +8319,7 @@
       </c>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="29.4" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>361</v>
       </c>
@@ -8736,32 +8771,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:J10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -8798,14 +8831,11 @@
       <c r="L1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="M1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -8821,19 +8851,20 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="M2" s="43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29.4" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -8866,10 +8897,9 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -8898,10 +8928,9 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -8930,10 +8959,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -8962,10 +8990,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -8994,10 +9021,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9028,10 +9054,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>456</v>
       </c>
@@ -9062,10 +9087,9 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="29.4" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9096,10 +9120,9 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9130,10 +9153,9 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9164,10 +9186,9 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9198,10 +9219,9 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9232,10 +9252,9 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.8" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9268,10 +9287,9 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9302,10 +9320,9 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1">
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9336,10 +9353,9 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1">
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9370,10 +9386,9 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1">
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9404,62 +9419,114 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1">
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
       <c r="D20" s="32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="F20" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1">
-      <c r="A21" s="1" t="s">
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="D21" s="32">
+        <v>20</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="A22" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="32">
+        <v>30</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D23" s="32">
         <v>19</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="43" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="M23" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9552,13 +9619,13 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="25"/>
@@ -10012,13 +10079,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -10038,13 +10105,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10545,17 +10612,17 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
@@ -11189,17 +11256,17 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">
@@ -11780,13 +11847,13 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -12213,13 +12280,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
@@ -12237,13 +12304,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A37A68-2369-4696-93D9-074112DE3B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D9EF4-AEF2-4AB1-B291-FBD7C530EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -3878,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8773,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D9EF4-AEF2-4AB1-B291-FBD7C530EC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7B8FC-8BA8-4985-82CB-09C8016F7095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
     <sheet name="CHAVES" sheetId="15" state="hidden" r:id="rId2"/>
     <sheet name="ACIONA_DISCADOR" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="ACIONA_CRM" sheetId="2" r:id="rId4"/>
-    <sheet name="ACORDOS" sheetId="7" r:id="rId5"/>
-    <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId7"/>
-    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="PAGAMENTOS" sheetId="8" r:id="rId9"/>
-    <sheet name="TELEFONE" sheetId="16" r:id="rId10"/>
-    <sheet name="EMAIL" sheetId="17" r:id="rId11"/>
+    <sheet name="TELEFONE" sheetId="16" r:id="rId5"/>
+    <sheet name="EMAIL" sheetId="17" r:id="rId6"/>
+    <sheet name="ACORDOS" sheetId="7" r:id="rId7"/>
+    <sheet name="MULTICANAIS" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="CADASTRO" sheetId="14" state="hidden" r:id="rId9"/>
+    <sheet name="DEXPARA" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="PAGAMENTOS" sheetId="8" r:id="rId11"/>
     <sheet name="CARTEIRA ATIVA" sheetId="1" r:id="rId12"/>
     <sheet name="TEMPOS" sheetId="4" state="hidden" r:id="rId13"/>
     <sheet name="PAUSAS" sheetId="13" state="hidden" r:id="rId14"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="578">
   <si>
     <t>CPF</t>
   </si>
@@ -1536,12 +1536,6 @@
   </si>
   <si>
     <t>STATUS DO TELEFONE</t>
-  </si>
-  <si>
-    <t>tbcontratante</t>
-  </si>
-  <si>
-    <t>contratante_id</t>
   </si>
   <si>
     <t>DATA_NASCIMENTO</t>
@@ -1783,27 +1777,237 @@
     <t>A DEFINIR</t>
   </si>
   <si>
-    <t>SELECT  TOP 1000
-CAST(A.DATA AS date) AS DATA,
-A.CONT_ID AS COD_CRM,
-A.ACIONAMENTO_ID AS ACIONAMENTO_ID,
-A.DEVEDOR_ID AS ID_KEY,
-B.COBRADOR_ID AS ID_CRM_OPERADOR,
-B.NOME AS NOME_CRM_OPERADOR,
-A.ACAO_ID AS ID_AC,
-C.DESCRICAO AS NOME_AC,
-A.SITUACAO_ID_AUX AS ID_SUB_AC,
-D.NOME AS NOME_SUB_AC,
-A.DATA AS INICIO_CHAMADA,
-A.DATA_ACIONAMENTO_FIM AS FIM_CHAMADA,
-A.FONE AS TELEFONE,
-'A DEFINIR' AS INSTANCIA,
-'A DEFINIR' AS BANCO,
-'ACTYON' AS ORIGEM
+    <t>QUERY_TIM</t>
+  </si>
+  <si>
+    <t>QUERY_KEDU</t>
+  </si>
+  <si>
+    <t>QUERY_ALLDESK</t>
+  </si>
+  <si>
+    <t>QUERY_MF_GAB</t>
+  </si>
+  <si>
+    <t>QUERY_MF_ENEL</t>
+  </si>
+  <si>
+    <t>QUERY_MF_COPEL</t>
+  </si>
+  <si>
+    <t>QUERY_MF_DEMAIS</t>
+  </si>
+  <si>
+    <t>QUERY_MF_ALARES</t>
+  </si>
+  <si>
+    <t>SELECT
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('45.77.94.104' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_Tim_RPL' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
 FROM tbdevedor_acionamento A with (NOLOCK)
 LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
 LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
-LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID</t>
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('45.77.164.133' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_Kedu' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('192.168.10.200' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_Meireles2' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('10.10.220.100' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_GAB' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('10.10.220.100' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_Enel' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('10.10.220.100' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_COPEL' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('10.10.220.100' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_Meireles2' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+ CAST(A.DATA AS DATE) AS DATA,
+    CAST(A.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.ACIONAMENTO_ID AS BIGINT) AS ACIONAMENTO_ID,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(B.COBRADOR_ID AS BIGINT) AS ID_CRM_OPERADOR,
+    CAST(B.NOME AS NVARCHAR(100)) AS NOME_CRM_OPERADOR,
+    CAST(A.ACAO_ID AS BIGINT) AS ID_AC,
+    CAST(C.DESCRICAO AS NVARCHAR(200)) AS NOME_AC,
+    CAST(A.SITUACAO_ID_AUX AS BIGINT) AS ID_SUB_AC,
+    CAST(D.NOME AS NVARCHAR(200)) AS NOME_SUB_AC,
+    CAST(A.DATA AS DATETIME2(7)) AS INICIO_CHAMADA,
+    CAST(A.DATA_ACIONAMENTO_FIM AS DATETIME2(7)) AS FIM_CHAMADA,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST('45.77.193.154' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('dbActyon_MEF' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS NVARCHAR(30)) AS ORIGEM
+FROM tbdevedor_acionamento A with (NOLOCK)
+LEFT JOIN tbcobrador B WITH(NOLOCK) ON A.COBRADOR_ID = B.COBRADOR_ID
+LEFT JOIN tbacao_cobranca C WITH(NOLOCK) ON A.ACAO_ID = C.ACAO_ID
+LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
+  </si>
+  <si>
+    <t>SELECT TOP 10
+    CAST(A.DATA_INCLUSAO AS DATETIME2(0)) AS DATA_INCLUSAO,
+    CAST(A.DATA_ALTERACAO AS DATETIME2(0)) AS DATA_ALTERACAO,
+    CAST(C.CONT_ID AS INT) AS COD_CRM,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(A.FONE AS NVARCHAR(20)) AS TELEFONE,
+    CAST(B.DESCRICAO AS NVARCHAR(30)) AS TIPO_FONE,
+    CAST(A.ORIGEM AS NVARCHAR(30)) AS ORIGEM_FONE,
+    CAST(CASE -- 0 = POSITIVO | 1 = NEGATIVO | 2 INCONSISTENTE | 5 = BLACKLIST
+        WHEN A.STATUS = 0 THEN 'POSITIVO'
+        WHEN A.STATUS = 1 THEN 'NEGATIVO'
+        WHEN A.STATUS = 2 THEN 'INCONSISTENTE'
+        WHEN A.STATUS = 5 THEN 'BLACKLIST'
+        ELSE 'DESCONHECIDO'
+        END AS NVARCHAR(30)) AS STATUS,
+    CAST(A.PERCENTUAL_LOCALIZACAO AS INT) AS PERCENTUAL_LOCALIZACAO,
+    CAST(A.SE_WHATSAPP AS SMALLINT) AS WHATSAPP,
+    CAST('ADEFINIR' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('ADEFINIR' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS VARCHAR(30)) AS ORIGEM
+FROM tbdevedor_fone A WITH (NOLOCK)
+LEFT JOIN tbtipo_fone B WITH (NOLOCK) ON A.TIPO = B.TIPO_FONE_ID
+LEFT JOIN tbdevedor C WITH (NOLOCK) ON A.DEVEDOR_ID = C.DEVEDOR_ID</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +2091,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1981,6 +2185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF44546A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,7 +2364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2299,6 +2509,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,33 +2932,733 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="A9:J9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="2">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>44566.370775462965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="I3" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6">
+      <c r="A4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -2773,19 +3695,16 @@
       <c r="L1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="M1" s="24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>493</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -2793,7 +3712,7 @@
       <c r="D2" s="32">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
       <c r="F2" s="45" t="s">
@@ -2806,14 +3725,13 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>459</v>
+        <v>240</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>422</v>
@@ -2832,62 +3750,56 @@
         <v>398</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>467</v>
+        <v>166</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D4" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>397</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>482</v>
+        <v>118</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>466</v>
+        <v>4</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1">
       <c r="A5" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D5" s="32">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
@@ -2901,25 +3813,23 @@
         <v>118</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="32" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D6" s="32">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
@@ -2933,19 +3843,17 @@
         <v>118</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>420</v>
@@ -2965,19 +3873,17 @@
         <v>118</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>420</v>
@@ -2987,29 +3893,29 @@
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>397</v>
+      </c>
       <c r="H8" s="32" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>118</v>
+        <v>438</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A9" s="42" t="s">
-        <v>37</v>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>421</v>
@@ -3028,28 +3934,26 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="10" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A10" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>473</v>
+        <v>183</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D10" s="32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
@@ -3062,28 +3966,26 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>401</v>
+        <v>3</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="32" t="s">
-        <v>102</v>
+        <v>449</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D11" s="32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
@@ -3096,28 +3998,26 @@
         <v>398</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D12" s="32">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
@@ -3130,32 +4030,28 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="25.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D13" s="32">
-        <v>30</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>469</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
         <v>76</v>
       </c>
@@ -3166,29 +4062,28 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="31.8" customHeight="1" thickBot="1">
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14" s="32">
-        <v>8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
         <v>76</v>
       </c>
@@ -3199,32 +4094,28 @@
         <v>398</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="29.4" thickBot="1">
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="D15" s="32">
-        <v>2</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>470</v>
-      </c>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
         <v>76</v>
       </c>
@@ -3235,17 +4126,15 @@
         <v>398</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -3261,589 +4150,6 @@
       <c r="E16" s="32"/>
       <c r="F16" s="45" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="32">
-        <v>19</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="32">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="32">
-        <v>19</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="A4" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="32">
-        <v>19</v>
-      </c>
-      <c r="E4" s="32">
-        <v>19</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="29.4" thickBot="1">
-      <c r="A5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="32">
-        <v>20</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="29.4" thickBot="1">
-      <c r="A6" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="32">
-        <v>100</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="29.4" thickBot="1">
-      <c r="A7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" s="32">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" ht="29.4" thickBot="1">
-      <c r="A8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="32">
-        <v>8</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
-      <c r="A9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="32">
-        <v>8</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="32">
-        <v>19</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="32">
-        <v>100</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D12" s="32">
-        <v>30</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="58.2" thickBot="1">
-      <c r="A13" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D13" s="32">
-        <v>20</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
-      <c r="A14" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" s="32">
-        <v>30</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="32">
-        <v>30</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="32">
-        <v>19</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="45" t="s">
-        <v>455</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
@@ -3851,24 +4157,34 @@
       <c r="J16" s="47"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="32">
+        <v>19</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3957,7 +4273,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>299</v>
@@ -3966,14 +4282,14 @@
         <v>10</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
       <c r="M2" s="43" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4086,10 +4402,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>420</v>
@@ -4116,13 +4432,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -4140,10 +4456,10 @@
         <v>398</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M8" s="44"/>
     </row>
@@ -4155,7 +4471,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4170,7 +4486,7 @@
         <v>398</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -4230,7 +4546,7 @@
         <v>398</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>2</v>
@@ -4242,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>421</v>
@@ -4269,13 +4585,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D13" s="1">
         <v>55</v>
@@ -4293,19 +4609,19 @@
         <v>438</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D14" s="1">
         <v>65</v>
@@ -4323,7 +4639,7 @@
         <v>438</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M14" s="44"/>
     </row>
@@ -4335,7 +4651,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -4350,7 +4666,7 @@
         <v>398</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>32</v>
@@ -4365,7 +4681,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -4380,7 +4696,7 @@
         <v>398</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>23</v>
@@ -4395,7 +4711,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
@@ -4410,7 +4726,7 @@
         <v>398</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>24</v>
@@ -4419,13 +4735,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D18" s="1">
         <v>150</v>
@@ -4440,22 +4756,22 @@
         <v>398</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -4470,10 +4786,10 @@
         <v>398</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M19" s="44"/>
     </row>
@@ -4482,10 +4798,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4500,7 +4816,7 @@
         <v>398</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>25</v>
@@ -4509,10 +4825,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>422</v>
@@ -4530,22 +4846,22 @@
         <v>398</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D22" s="1">
         <v>25</v>
@@ -4560,7 +4876,7 @@
         <v>398</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>405</v>
@@ -4569,13 +4885,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -4593,16 +4909,16 @@
         <v>438</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>420</v>
@@ -4623,7 +4939,7 @@
         <v>438</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M24" s="44"/>
     </row>
@@ -4632,7 +4948,7 @@
         <v>427</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>420</v>
@@ -4659,13 +4975,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -4683,19 +4999,19 @@
         <v>438</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -4713,22 +5029,22 @@
         <v>438</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -4743,7 +5059,7 @@
         <v>438</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M28" s="44"/>
     </row>
@@ -4752,13 +5068,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -4779,13 +5095,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -4803,7 +5119,7 @@
         <v>438</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M30" s="44"/>
     </row>
@@ -4812,7 +5128,7 @@
         <v>426</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>422</v>
@@ -4869,10 +5185,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>422</v>
@@ -4893,19 +5209,19 @@
         <v>438</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D34" s="1">
         <v>720</v>
@@ -4923,16 +5239,16 @@
         <v>438</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>422</v>
@@ -4953,7 +5269,7 @@
         <v>438</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M35" s="44"/>
     </row>
@@ -4962,7 +5278,7 @@
         <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>422</v>
@@ -4992,7 +5308,7 @@
         <v>466</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>422</v>
@@ -5022,10 +5338,10 @@
         <v>437</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -5049,13 +5365,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -5073,19 +5389,19 @@
         <v>438</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D40" s="1">
         <v>75</v>
@@ -5103,7 +5419,7 @@
         <v>438</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M40" s="44"/>
     </row>
@@ -5112,10 +5428,10 @@
         <v>436</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5139,13 +5455,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D42" s="1">
         <v>55</v>
@@ -5163,7 +5479,7 @@
         <v>438</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M42" s="44"/>
     </row>
@@ -8771,10 +9087,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8791,10 +9107,11 @@
     <col min="10" max="10" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="20" width="19.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -8832,10 +9149,31 @@
         <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+        <v>561</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -8861,10 +9199,31 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="43" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="29.4" thickBot="1">
+        <v>569</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>574</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29.4" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -8898,8 +9257,15 @@
         <v>423</v>
       </c>
       <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="51"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -8929,8 +9295,15 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
       <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="51"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -8960,8 +9333,15 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="51"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -8991,8 +9371,15 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
       <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="51"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -9022,8 +9409,15 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
       <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="51"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9055,8 +9449,15 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
       <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="51"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>456</v>
       </c>
@@ -9088,8 +9489,15 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1">
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="51"/>
+    </row>
+    <row r="10" spans="1:20" ht="29.4" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9121,8 +9529,15 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9154,8 +9569,15 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="51"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9187,8 +9609,15 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="51"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9220,8 +9649,15 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9253,8 +9689,15 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
       <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.8" thickBot="1">
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="51"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.8" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9288,8 +9731,15 @@
       </c>
       <c r="L15" s="32"/>
       <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="51"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9321,8 +9771,15 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="44"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="51"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9354,8 +9811,15 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="44"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="51"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9387,8 +9851,15 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9420,23 +9891,30 @@
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
       <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="51"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D20" s="32">
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="45" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
@@ -9445,23 +9923,30 @@
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
       <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="51"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D21" s="32">
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="45" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -9470,8 +9955,15 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="51"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -9479,7 +9971,7 @@
         <v>415</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>419</v>
+        <v>551</v>
       </c>
       <c r="D22" s="32">
         <v>30</v>
@@ -9495,8 +9987,15 @@
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
       <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="51"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>453</v>
       </c>
@@ -9518,15 +10017,29 @@
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
       <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
     <mergeCell ref="M2:M23"/>
     <mergeCell ref="F22:J22"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="F20:J20"/>
+    <mergeCell ref="T2:T23"/>
+    <mergeCell ref="N2:N23"/>
+    <mergeCell ref="P2:P23"/>
+    <mergeCell ref="Q2:Q23"/>
+    <mergeCell ref="R2:R23"/>
+    <mergeCell ref="S2:S23"/>
+    <mergeCell ref="O2:O23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9534,6 +10047,1242 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="32">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="A3" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="32">
+        <v>19</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="A4" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="32">
+        <v>19</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="32">
+        <v>20</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="32">
+        <v>100</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="32">
+        <v>8</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="32">
+        <v>19</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="32">
+        <v>20</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="A12" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="32">
+        <v>30</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="A13" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="32">
+        <v>30</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="32">
+        <v>30</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.8" customHeight="1" thickBot="1">
+      <c r="A15" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="32">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A16" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" s="32">
+        <v>2</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="32">
+        <v>20</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="A18" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="32">
+        <v>20</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="A19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="32">
+        <v>30</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="32">
+        <v>19</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="M20" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M2:M20"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="32">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="A3" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="32">
+        <v>19</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="A4" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="32">
+        <v>19</v>
+      </c>
+      <c r="E4" s="32">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="32">
+        <v>20</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+      <c r="A6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="32">
+        <v>100</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+      <c r="A7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="32">
+        <v>8</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+      <c r="A8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="A9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="32">
+        <v>19</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="32">
+        <v>100</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="32">
+        <v>30</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" ht="58.2" thickBot="1">
+      <c r="A13" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="32">
+        <v>20</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="A14" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="32">
+        <v>30</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="A15" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="32">
+        <v>20</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="A16" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="32">
+        <v>20</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="32">
+        <v>30</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="32">
+        <v>19</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
   <dimension ref="A1:N17"/>
   <sheetViews>
@@ -10123,7 +11872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B8EF36-DED1-4AE4-8E82-79A80977A3B5}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -10416,7 +12165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97A6D-8857-4D87-AF49-4B4418AC3D8F}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -11061,1263 +12810,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B44F7F0-7B7D-413E-AA95-E491BFA5A425}">
-  <dimension ref="A1:Y29"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="2">
-        <v>78</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>44566.370775462965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="I3" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:25" ht="27.6">
-      <c r="A4" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:Q3"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
-  <dimension ref="A1:M17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="32">
-        <v>19</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="32">
-        <v>19</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="A4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D4" s="32">
-        <v>20</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
-      <c r="A5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="32">
-        <v>100</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="32">
-        <v>8</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" s="32">
-        <v>8</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="32">
-        <v>8</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
-      <c r="A9" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="32">
-        <v>19</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="32">
-        <v>19</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
-      <c r="A11" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="32">
-        <v>50</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
-      <c r="A12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D12" s="32">
-        <v>150</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D13" s="32">
-        <v>8</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
-      <c r="A14" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" s="32">
-        <v>100</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D15" s="32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
-      <c r="A16" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="32">
-        <v>30</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="32">
-        <v>19</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7B8FC-8BA8-4985-82CB-09C8016F7095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F974A3-E461-4D70-8AA5-760EE30AE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="3" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="578">
   <si>
     <t>CPF</t>
   </si>
@@ -2364,7 +2364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2492,6 +2492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2507,20 +2510,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3124,17 +3121,17 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">
@@ -3638,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3715,13 +3712,13 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -4148,13 +4145,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
@@ -4172,13 +4169,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4194,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4281,14 +4278,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="M2" s="43" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="M2" s="44" t="s">
         <v>555</v>
       </c>
     </row>
@@ -4317,7 +4314,7 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -4344,7 +4341,7 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
@@ -4371,7 +4368,7 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
@@ -4398,7 +4395,7 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -4428,7 +4425,7 @@
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
@@ -4461,7 +4458,7 @@
       <c r="J8" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="M8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
@@ -4491,7 +4488,7 @@
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="44"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
@@ -4521,7 +4518,7 @@
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
@@ -4551,7 +4548,7 @@
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
@@ -4581,7 +4578,7 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="44"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
@@ -4611,7 +4608,7 @@
       <c r="J13" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="M13" s="44"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
@@ -4641,7 +4638,7 @@
       <c r="J14" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="M14" s="44"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
@@ -4671,7 +4668,7 @@
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
@@ -4701,7 +4698,7 @@
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
@@ -4731,7 +4728,7 @@
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="44"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
@@ -4761,7 +4758,7 @@
       <c r="J18" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="M18" s="44"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
@@ -4791,7 +4788,7 @@
       <c r="J19" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M19" s="44"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
@@ -4821,7 +4818,7 @@
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="44"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
@@ -4851,7 +4848,7 @@
       <c r="J21" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
@@ -4881,7 +4878,7 @@
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="44"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
@@ -4911,7 +4908,7 @@
       <c r="J23" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M23" s="44"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
@@ -4941,7 +4938,7 @@
       <c r="J24" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M24" s="44"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
@@ -4971,7 +4968,7 @@
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="44"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
@@ -5001,7 +4998,7 @@
       <c r="J26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
@@ -5031,7 +5028,7 @@
       <c r="J27" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="M27" s="44"/>
+      <c r="M27" s="45"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
@@ -5061,7 +5058,7 @@
       <c r="J28" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M28" s="44"/>
+      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
@@ -5091,7 +5088,7 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
@@ -5121,7 +5118,7 @@
       <c r="J30" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M30" s="44"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
@@ -5151,7 +5148,7 @@
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="44"/>
+      <c r="M31" s="45"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
@@ -5181,7 +5178,7 @@
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="44"/>
+      <c r="M32" s="45"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
@@ -5211,7 +5208,7 @@
       <c r="J33" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M33" s="44"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
@@ -5241,7 +5238,7 @@
       <c r="J34" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M34" s="44"/>
+      <c r="M34" s="45"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
@@ -5271,7 +5268,7 @@
       <c r="J35" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M35" s="44"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
@@ -5301,7 +5298,7 @@
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="44"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
@@ -5331,7 +5328,7 @@
       <c r="J37" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M37" s="44"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
@@ -5361,7 +5358,7 @@
       <c r="J38" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M38" s="44"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
@@ -5391,7 +5388,7 @@
       <c r="J39" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M39" s="44"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
@@ -5421,7 +5418,7 @@
       <c r="J40" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="M40" s="44"/>
+      <c r="M40" s="45"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
@@ -5451,7 +5448,7 @@
       <c r="J41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M41" s="44"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
@@ -5481,7 +5478,7 @@
       <c r="J42" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="M42" s="44"/>
+      <c r="M42" s="45"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
@@ -5496,14 +5493,14 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="M43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="M43" s="45"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
@@ -5518,14 +5515,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="M44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="M44" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9089,8 +9086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDC3FDF-6F9A-4848-AD13-8B6EB024C104}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -9169,7 +9166,7 @@
       <c r="S1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="43" t="s">
         <v>568</v>
       </c>
     </row>
@@ -9189,37 +9186,37 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="49" t="s">
         <v>576</v>
       </c>
     </row>
@@ -9256,14 +9253,14 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="51"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="50"/>
     </row>
     <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="32" t="s">
@@ -9294,14 +9291,14 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="51"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="50"/>
     </row>
     <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
@@ -9332,14 +9329,14 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="51"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="50"/>
     </row>
     <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
@@ -9370,14 +9367,14 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="51"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
@@ -9408,14 +9405,14 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="51"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
@@ -9448,14 +9445,14 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="51"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="50"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
@@ -9488,14 +9485,14 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="51"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="29.4" thickBot="1">
       <c r="A10" s="32" t="s">
@@ -9528,14 +9525,14 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="51"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="50"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="42" t="s">
@@ -9568,14 +9565,14 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="51"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="50"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
@@ -9608,14 +9605,14 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="51"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="50"/>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
@@ -9648,14 +9645,14 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="51"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
@@ -9688,14 +9685,14 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="51"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="50"/>
     </row>
     <row r="15" spans="1:20" ht="43.8" thickBot="1">
       <c r="A15" s="32" t="s">
@@ -9730,14 +9727,14 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="51"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="50"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
@@ -9770,14 +9767,14 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="51"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="50"/>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="32" t="s">
@@ -9810,14 +9807,14 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="51"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="50"/>
     </row>
     <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
@@ -9850,14 +9847,14 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="51"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="50"/>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
@@ -9890,14 +9887,14 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="51"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="50"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
@@ -9913,23 +9910,23 @@
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="51"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="50"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
@@ -9945,23 +9942,23 @@
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="51"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="50"/>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
@@ -9977,23 +9974,23 @@
         <v>30</v>
       </c>
       <c r="E22" s="32"/>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="51"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="50"/>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
@@ -10009,30 +10006,24 @@
         <v>19</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="51"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T2:T23"/>
     <mergeCell ref="N2:N23"/>
     <mergeCell ref="P2:P23"/>
@@ -10040,6 +10031,12 @@
     <mergeCell ref="R2:R23"/>
     <mergeCell ref="S2:S23"/>
     <mergeCell ref="O2:O23"/>
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10051,7 +10048,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -10128,16 +10125,16 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="44" t="s">
         <v>577</v>
       </c>
     </row>
@@ -10172,7 +10169,7 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="44"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
@@ -10205,7 +10202,7 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="44"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
@@ -10236,7 +10233,7 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
@@ -10267,7 +10264,7 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="44"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
@@ -10298,7 +10295,7 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="44"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="32" t="s">
@@ -10329,7 +10326,7 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
@@ -10362,7 +10359,7 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="44"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A10" s="42" t="s">
@@ -10395,7 +10392,7 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="44"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="1" t="s">
@@ -10428,7 +10425,7 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="44"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
@@ -10461,7 +10458,7 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="44"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
@@ -10494,7 +10491,7 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="44"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
       <c r="A14" s="32" t="s">
@@ -10529,7 +10526,7 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="44"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="31.8" customHeight="1" thickBot="1">
       <c r="A15" s="32" t="s">
@@ -10561,7 +10558,7 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="29.4" thickBot="1">
       <c r="A16" s="32" t="s">
@@ -10596,7 +10593,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1">
       <c r="A17" s="32" t="s">
@@ -10612,16 +10609,16 @@
         <v>20</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
@@ -10637,16 +10634,16 @@
         <v>20</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="44"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
@@ -10662,16 +10659,16 @@
         <v>30</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="1" t="s">
@@ -10687,14 +10684,14 @@
         <v>19</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="M20" s="44"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="M20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10792,13 +10789,13 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
@@ -10864,7 +10861,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10894,7 +10891,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10924,7 +10921,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+    <row r="7" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10954,7 +10951,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="29.4" hidden="1" thickBot="1">
+    <row r="8" spans="1:13" ht="15" hidden="1" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -11016,7 +11013,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+    <row r="10" spans="1:13" ht="29.4" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -11192,13 +11189,13 @@
         <v>20</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
@@ -11216,13 +11213,13 @@
         <v>20</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
@@ -11240,13 +11237,13 @@
         <v>30</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -11262,13 +11259,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11284,10 +11281,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11303,12 +11300,10 @@
     <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -11345,14 +11340,8 @@
       <c r="L1" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -11368,19 +11357,17 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -11411,10 +11398,8 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -11443,10 +11428,8 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -11475,10 +11458,8 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -11507,10 +11488,8 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -11539,10 +11518,8 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1">
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -11573,10 +11550,8 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -11607,10 +11582,8 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" spans="1:14" ht="29.4" thickBot="1">
+    </row>
+    <row r="10" spans="1:12" ht="29.4" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -11641,10 +11614,8 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="32" t="s">
         <v>434</v>
       </c>
@@ -11675,10 +11646,8 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
@@ -11709,10 +11678,8 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -11743,10 +11710,8 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>427</v>
       </c>
@@ -11777,10 +11742,8 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>95</v>
       </c>
@@ -11811,10 +11774,8 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -11828,17 +11789,15 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
@@ -11854,13 +11813,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12361,17 +12320,17 @@
       <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F974A3-E461-4D70-8AA5-760EE30AE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F7085-BA8D-430E-83F1-4AA3A187867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="579">
   <si>
     <t>CPF</t>
   </si>
@@ -2009,12 +2009,15 @@
 LEFT JOIN tbtipo_fone B WITH (NOLOCK) ON A.TIPO = B.TIPO_FONE_ID
 LEFT JOIN tbdevedor C WITH (NOLOCK) ON A.DEVEDOR_ID = C.DEVEDOR_ID</t>
   </si>
+  <si>
+    <t>NUMERO DO CPF DO CLIENTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2495,6 +2498,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2509,12 +2518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2839,7 +2842,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2847,7 +2850,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2858,67 +2861,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2936,7 +2939,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -2966,7 +2969,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
@@ -3133,7 +3136,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -3639,7 +3642,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
@@ -3655,7 +3658,7 @@
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -3712,18 +3715,18 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -3755,7 +3758,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -3785,7 +3788,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -3875,7 +3878,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -3907,7 +3910,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -3939,7 +3942,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1">
+    <row r="10" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3974,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>449</v>
       </c>
@@ -4003,7 +4006,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>47</v>
       </c>
@@ -4035,7 +4038,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>443</v>
       </c>
@@ -4067,7 +4070,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>444</v>
       </c>
@@ -4099,7 +4102,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>96</v>
       </c>
@@ -4131,7 +4134,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -4145,17 +4148,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -4169,13 +4172,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4191,11 +4194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -4224,7 +4227,7 @@
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4278,18 +4281,18 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="M2" s="44" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="46" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4314,9 +4317,9 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4341,9 +4344,9 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4368,9 +4371,9 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4395,9 +4398,9 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>522</v>
       </c>
@@ -4425,9 +4428,9 @@
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>501</v>
       </c>
@@ -4458,9 +4461,9 @@
       <c r="J8" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4488,9 +4491,9 @@
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4518,9 +4521,9 @@
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4548,9 +4551,9 @@
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4578,9 +4581,9 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>547</v>
       </c>
@@ -4608,9 +4611,9 @@
       <c r="J13" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>548</v>
       </c>
@@ -4638,9 +4641,9 @@
       <c r="J14" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4668,9 +4671,9 @@
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4698,9 +4701,9 @@
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4728,9 +4731,9 @@
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>524</v>
       </c>
@@ -4758,9 +4761,9 @@
       <c r="J18" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>549</v>
       </c>
@@ -4788,9 +4791,9 @@
       <c r="J19" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4818,9 +4821,9 @@
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>495</v>
       </c>
@@ -4848,9 +4851,9 @@
       <c r="J21" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>499</v>
       </c>
@@ -4878,9 +4881,9 @@
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="47"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>496</v>
       </c>
@@ -4908,9 +4911,9 @@
       <c r="J23" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>510</v>
       </c>
@@ -4938,9 +4941,9 @@
       <c r="J24" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
@@ -4968,9 +4971,9 @@
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>511</v>
       </c>
@@ -4998,9 +5001,9 @@
       <c r="J26" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="M26" s="45"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="47"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>512</v>
       </c>
@@ -5028,9 +5031,9 @@
       <c r="J27" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="M27" s="45"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>514</v>
       </c>
@@ -5058,9 +5061,9 @@
       <c r="J28" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M28" s="45"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="47"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5088,9 +5091,9 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="45"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>516</v>
       </c>
@@ -5118,9 +5121,9 @@
       <c r="J30" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M30" s="45"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>426</v>
       </c>
@@ -5148,9 +5151,9 @@
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="45"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" s="47"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5178,9 +5181,9 @@
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>517</v>
       </c>
@@ -5208,9 +5211,9 @@
       <c r="J33" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>518</v>
       </c>
@@ -5238,9 +5241,9 @@
       <c r="J34" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M34" s="45"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>519</v>
       </c>
@@ -5268,9 +5271,9 @@
       <c r="J35" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>429</v>
       </c>
@@ -5298,9 +5301,9 @@
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="47"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>466</v>
       </c>
@@ -5328,9 +5331,9 @@
       <c r="J37" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>437</v>
       </c>
@@ -5358,9 +5361,9 @@
       <c r="J38" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M38" s="45"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>520</v>
       </c>
@@ -5388,9 +5391,9 @@
       <c r="J39" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M39" s="45"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>545</v>
       </c>
@@ -5418,9 +5421,9 @@
       <c r="J40" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="M40" s="45"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>436</v>
       </c>
@@ -5448,9 +5451,9 @@
       <c r="J41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M41" s="45"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>523</v>
       </c>
@@ -5478,9 +5481,9 @@
       <c r="J42" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="M42" s="45"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -5493,16 +5496,16 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="M43" s="45"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="M43" s="47"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>453</v>
       </c>
@@ -5515,14 +5518,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="M44" s="45"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="M44" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5542,7 +5545,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5565,7 +5568,7 @@
     <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5691,7 +5694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5933,7 +5936,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
@@ -5951,7 +5954,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6078,7 +6081,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -6210,7 +6213,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -6228,7 +6231,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6354,7 +6357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6444,7 +6447,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -6452,7 +6455,7 @@
     <col min="11" max="11" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G2" s="24" t="s">
         <v>171</v>
       </c>
@@ -6466,7 +6469,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="7:10">
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
         <v>338</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="7:10">
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>339</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="7:10">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
         <v>340</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="7:10">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>341</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="7:10">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>342</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="7:10">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
         <v>343</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="7:10">
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
         <v>344</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="7:10">
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
         <v>345</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="7:10">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
         <v>346</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="7:10">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
         <v>347</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="7:10">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>348</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="7:10">
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
         <v>349</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="7:10">
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
         <v>350</v>
       </c>
@@ -6661,7 +6664,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6714,7 +6717,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6802,7 +6805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6882,7 +6885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7682,7 +7685,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -8252,62 +8255,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -8344,7 +8347,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -8363,7 +8366,7 @@
     <col min="16" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>164</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
@@ -8447,7 +8450,7 @@
       </c>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
@@ -8472,7 +8475,7 @@
       </c>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -8497,7 +8500,7 @@
       </c>
       <c r="O4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>71</v>
       </c>
@@ -8522,7 +8525,7 @@
       </c>
       <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
@@ -8547,7 +8550,7 @@
       </c>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>37</v>
       </c>
@@ -8572,7 +8575,7 @@
       </c>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
@@ -8597,7 +8600,7 @@
       </c>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>359</v>
       </c>
@@ -8632,7 +8635,7 @@
       </c>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>361</v>
       </c>
@@ -8669,7 +8672,7 @@
       </c>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>182</v>
       </c>
@@ -8706,7 +8709,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>364</v>
       </c>
@@ -8741,7 +8744,7 @@
       </c>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>366</v>
       </c>
@@ -8776,7 +8779,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>368</v>
       </c>
@@ -8811,7 +8814,7 @@
       </c>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>371</v>
       </c>
@@ -8846,7 +8849,7 @@
       </c>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>34</v>
       </c>
@@ -8871,7 +8874,7 @@
       </c>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
@@ -8908,7 +8911,7 @@
       </c>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>38</v>
       </c>
@@ -8945,7 +8948,7 @@
       </c>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1">
+    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -8982,7 +8985,7 @@
       </c>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
@@ -9017,7 +9020,7 @@
       </c>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>163</v>
       </c>
@@ -9052,7 +9055,7 @@
       </c>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
@@ -9087,10 +9090,10 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D23"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.109375" style="1" customWidth="1"/>
@@ -9108,7 +9111,7 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -9186,41 +9189,41 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="44" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29.4" thickBot="1">
+    <row r="3" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -9253,16 +9256,16 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -9291,16 +9294,16 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="50"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -9329,16 +9332,16 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="50"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -9367,16 +9370,16 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="50"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -9405,16 +9408,16 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="50"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9445,16 +9448,16 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="50"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>456</v>
       </c>
@@ -9485,16 +9488,16 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="50"/>
-    </row>
-    <row r="10" spans="1:20" ht="29.4" thickBot="1">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9525,16 +9528,16 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="50"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9565,16 +9568,16 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="50"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9605,16 +9608,16 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="50"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="45"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9645,16 +9648,16 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="50"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9685,16 +9688,16 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="50"/>
-    </row>
-    <row r="15" spans="1:20" ht="43.8" thickBot="1">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9727,16 +9730,16 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="50"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="45"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9767,16 +9770,16 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9807,16 +9810,16 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9847,16 +9850,16 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="50"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9887,16 +9890,16 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="50"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>312</v>
       </c>
@@ -9910,25 +9913,25 @@
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>558</v>
       </c>
@@ -9942,25 +9945,25 @@
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -9974,25 +9977,25 @@
         <v>30</v>
       </c>
       <c r="E22" s="32"/>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="50"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="45"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>453</v>
       </c>
@@ -10006,24 +10009,30 @@
         <v>19</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T2:T23"/>
     <mergeCell ref="N2:N23"/>
     <mergeCell ref="P2:P23"/>
@@ -10031,12 +10040,6 @@
     <mergeCell ref="R2:R23"/>
     <mergeCell ref="S2:S23"/>
     <mergeCell ref="O2:O23"/>
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10045,13 +10048,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
@@ -10068,7 +10071,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10109,7 +10112,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>471</v>
       </c>
@@ -10125,20 +10128,20 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10169,9 +10172,9 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
@@ -10202,9 +10205,9 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10233,9 +10236,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10264,9 +10267,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10295,9 +10298,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -10326,9 +10329,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -10359,20 +10362,20 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>421</v>
+        <v>551</v>
       </c>
       <c r="D10" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
@@ -10385,27 +10388,27 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>473</v>
+        <v>183</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D11" s="32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
@@ -10421,24 +10424,24 @@
         <v>482</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
-      <c r="A12" s="32" t="s">
-        <v>102</v>
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D12" s="32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
@@ -10451,27 +10454,27 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D13" s="32">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
@@ -10484,31 +10487,29 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>94</v>
+        <v>405</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D14" s="32">
-        <v>30</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>469</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E14" s="32"/>
       <c r="F14" s="32" t="s">
         <v>76</v>
       </c>
@@ -10522,24 +10523,27 @@
         <v>482</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="31.8" customHeight="1" thickBot="1">
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15" s="32">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>469</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>76</v>
@@ -10554,27 +10558,24 @@
         <v>482</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="29.4" thickBot="1">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>88</v>
+        <v>460</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="D16" s="32">
-        <v>2</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>470</v>
+        <v>4</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>76</v>
@@ -10589,43 +10590,53 @@
         <v>482</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="D17" s="32">
+        <v>2</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="32" t="s">
         <v>557</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="D17" s="32">
-        <v>20</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
-        <v>560</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
-      <c r="A18" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>559</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>551</v>
@@ -10634,73 +10645,98 @@
         <v>20</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>94</v>
+        <v>558</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>551</v>
       </c>
       <c r="D19" s="32">
+        <v>20</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" s="32">
         <v>30</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="46" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D21" s="32">
         <v>19</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="46" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="M20" s="45"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="M21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M2:M20"/>
+    <mergeCell ref="M2:M21"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10709,13 +10745,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.44140625" style="1" customWidth="1"/>
@@ -10732,7 +10768,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10773,7 +10809,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>475</v>
       </c>
@@ -10789,17 +10825,17 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10831,7 +10867,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
@@ -10861,7 +10897,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10891,7 +10927,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10921,7 +10957,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="7" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10951,7 +10987,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" thickBot="1">
+    <row r="8" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -10981,7 +11017,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -11013,18 +11049,18 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>421</v>
+        <v>551</v>
       </c>
       <c r="D10" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
@@ -11037,26 +11073,26 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>87</v>
+    <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>477</v>
+        <v>183</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D11" s="32">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
@@ -11072,23 +11108,23 @@
         <v>481</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>486</v>
+        <v>87</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D12" s="32">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
@@ -11101,30 +11137,28 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>405</v>
+        <v>87</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="58.2" thickBot="1">
-      <c r="A13" s="32" t="s">
-        <v>106</v>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D13" s="32">
-        <v>20</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>484</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
         <v>76</v>
       </c>
@@ -11135,28 +11169,30 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D14" s="32">
-        <v>30</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>484</v>
+      </c>
       <c r="F14" s="32" t="s">
         <v>76</v>
       </c>
@@ -11170,41 +11206,49 @@
         <v>481</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>94</v>
+        <v>485</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>557</v>
+        <v>478</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>551</v>
+        <v>419</v>
       </c>
       <c r="D15" s="32">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="46" t="s">
-        <v>560</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>558</v>
+        <v>312</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>551</v>
@@ -11213,67 +11257,91 @@
         <v>20</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>94</v>
+        <v>558</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>551</v>
       </c>
       <c r="D17" s="32">
+        <v>20</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="32">
         <v>30</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C19" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D19" s="32">
         <v>19</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="46" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -11287,7 +11355,7 @@
       <selection activeCell="K2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.88671875" customWidth="1"/>
@@ -11303,7 +11371,7 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -11341,7 +11409,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>489</v>
       </c>
@@ -11357,17 +11425,17 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -11399,7 +11467,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -11429,7 +11497,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -11459,7 +11527,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -11489,7 +11557,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -11519,7 +11587,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -11551,7 +11619,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -11583,7 +11651,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" ht="29.4" thickBot="1">
+    <row r="10" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -11615,7 +11683,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>434</v>
       </c>
@@ -11647,7 +11715,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
@@ -11679,7 +11747,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -11711,7 +11779,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>427</v>
       </c>
@@ -11743,7 +11811,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>95</v>
       </c>
@@ -11775,7 +11843,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -11789,17 +11857,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -11813,13 +11881,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11839,7 +11907,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -11858,7 +11926,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -11905,7 +11973,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -11937,7 +12005,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -11969,7 +12037,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -11980,7 +12048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -11991,7 +12059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12002,7 +12070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -12013,7 +12081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -12024,7 +12092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -12035,7 +12103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12046,7 +12114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -12057,7 +12125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -12072,7 +12140,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -12086,7 +12154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -12097,7 +12165,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -12108,7 +12176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -12132,7 +12200,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -12161,7 +12229,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -12235,7 +12303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12309,7 +12377,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -12319,7 +12387,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
@@ -12332,7 +12400,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -12385,7 +12453,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -12420,7 +12488,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -12455,7 +12523,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -12469,7 +12537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12483,7 +12551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -12497,7 +12565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -12511,7 +12579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -12525,7 +12593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -12539,7 +12607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -12553,7 +12621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -12567,7 +12635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -12581,7 +12649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -12595,7 +12663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -12609,7 +12677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -12623,7 +12691,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -12637,7 +12705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -12651,7 +12719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -12665,7 +12733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -12679,7 +12747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -12693,7 +12761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -12707,7 +12775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -12721,7 +12789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -12735,7 +12803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -12749,7 +12817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F7085-BA8D-430E-83F1-4AA3A187867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691FB95-163F-4DC0-A128-1565577E70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" firstSheet="3" activeTab="4" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="5" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="580">
   <si>
     <t>CPF</t>
   </si>
@@ -1509,9 +1509,6 @@
   </si>
   <si>
     <t>TIPO</t>
-  </si>
-  <si>
-    <t>SITUAÇÃO_EMAIL</t>
   </si>
   <si>
     <t>STATUS DO EMAIL</t>
@@ -1985,7 +1982,13 @@
 LEFT JOIN tbsituacao_cobranca D WITH (NOLOCK) ON A.SITUACAO_ID_AUX = D.SITUACAO_ID;</t>
   </si>
   <si>
-    <t>SELECT TOP 10
+    <t>NUMERO DO CPF DO CLIENTE</t>
+  </si>
+  <si>
+    <t>SITUACAO_EMAIL</t>
+  </si>
+  <si>
+    <t>SELECT
     CAST(A.DATA_INCLUSAO AS DATETIME2(0)) AS DATA_INCLUSAO,
     CAST(A.DATA_ALTERACAO AS DATETIME2(0)) AS DATA_ALTERACAO,
     CAST(C.CONT_ID AS INT) AS COD_CRM,
@@ -2010,14 +2013,38 @@
 LEFT JOIN tbdevedor C WITH (NOLOCK) ON A.DEVEDOR_ID = C.DEVEDOR_ID</t>
   </si>
   <si>
-    <t>NUMERO DO CPF DO CLIENTE</t>
+    <t>SELECT 
+    CAST(A.DATA_INCLUSAO AS DATETIME2(0)) AS DATA_INCLUSAO,
+    CAST(NULL AS DATETIME2(0)) AS DATA_ALTERACAO,
+    CAST(C.CONT_ID AS INT) AS COD_CRM,
+    CAST(C.CPF AS VARCHAR(20)) AS CPF,
+    CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+    CAST(A.EMAIL AS NVARCHAR(200)) AS EMAIL,
+    CAST(B.DESCRICAO AS NVARCHAR(120)) AS SITUACAO_EMAIL,
+    --CAST(A.TIPO AS NVARCHAR(80)) AS TIPO_EMAIL,
+    CAST(CASE -- L = ALUNO | A = AVALISTA | C CONJUGUE | D = DEVEDOR
+        WHEN A.TIPO = 'L' THEN 'ALUNO'
+        WHEN A.TIPO = 'A' THEN 'AVALISTA'
+        WHEN A.TIPO = 'C' THEN 'CONJUGUE'
+        WHEN A.TIPO = 'D' THEN 'DEVEDOR'
+        ELSE A.TIPO
+        END AS NVARCHAR(80)) AS TIPO_EMAIL,
+    CAST(A.ORIGEM AS NVARCHAR(120)) AS ORIGEM_EMAIL,    
+    CAST('ADEFINIR' AS VARCHAR(20)) AS INSTANCIA,
+    CAST('ADEFINIR' AS VARCHAR(20)) AS BANCO,
+    CAST('ACTYON' AS VARCHAR(30)) AS ORIGEM
+FROM tbdevedor_email A WITH (NOLOCK)
+LEFT JOIN tbsituacao_email B WITH (NOLOCK) ON A.SITUACAO = B.SITUACAO_EMAIL_ID
+LEFT JOIN tbdevedor C WITH (NOLOCK) ON A.DEVEDOR_ID = C.DEVEDOR_ID
+WHERE 
+    CAST(A.DATA_INCLUSAO AS DATE) = CAST(GETDATE() AS DATE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2498,12 +2525,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2518,6 +2539,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2842,7 +2869,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -2850,7 +2877,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2861,67 +2888,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2939,7 +2966,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
@@ -2969,7 +2996,7 @@
     <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3123,7 +3150,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
@@ -3136,7 +3163,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="27.6">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -3189,7 +3216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3224,7 +3251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +3286,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3273,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3287,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +3342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -3329,7 +3356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -3343,7 +3370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -3357,7 +3384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3374,7 +3401,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -3391,7 +3418,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3408,7 +3435,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3425,7 +3452,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -3459,7 +3486,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3476,7 +3503,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3493,7 +3520,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,7 +3537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -3527,7 +3554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -3544,7 +3571,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3561,7 +3588,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -3578,7 +3605,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3595,7 +3622,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -3612,7 +3639,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -3639,10 +3666,10 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J4" sqref="J4:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
@@ -3658,7 +3685,7 @@
     <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3699,12 +3726,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -3715,18 +3742,18 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -3758,7 +3785,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3815,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3845,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -3848,7 +3875,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -3878,7 +3905,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -3910,7 +3937,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -3942,7 +3969,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="29.4" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -3974,7 +4001,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="32" t="s">
         <v>449</v>
       </c>
@@ -4006,7 +4033,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>47</v>
       </c>
@@ -4038,7 +4065,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>443</v>
       </c>
@@ -4070,7 +4097,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>444</v>
       </c>
@@ -4102,7 +4129,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>96</v>
       </c>
@@ -4134,7 +4161,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -4148,17 +4175,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -4172,13 +4199,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4194,11 +4221,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -4227,7 +4254,7 @@
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4268,12 +4295,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>299</v>
@@ -4281,18 +4308,18 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>504</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="M2" s="46" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F2" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="M2" s="44" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4317,9 +4344,9 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4344,9 +4371,9 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4371,9 +4398,9 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4398,14 +4425,14 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>420</v>
@@ -4428,17 +4455,17 @@
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
@@ -4456,14 +4483,14 @@
         <v>398</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4498,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4486,14 +4513,14 @@
         <v>398</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4521,9 +4548,9 @@
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4546,19 +4573,19 @@
         <v>398</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>421</v>
@@ -4581,17 +4608,17 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D13" s="1">
         <v>55</v>
@@ -4609,19 +4636,19 @@
         <v>438</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D14" s="1">
         <v>65</v>
@@ -4639,11 +4666,11 @@
         <v>438</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4651,7 +4678,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -4666,14 +4693,14 @@
         <v>398</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4681,7 +4708,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -4696,14 +4723,14 @@
         <v>398</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4711,7 +4738,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
@@ -4726,22 +4753,22 @@
         <v>398</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D18" s="1">
         <v>150</v>
@@ -4756,22 +4783,22 @@
         <v>398</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -4786,22 +4813,22 @@
         <v>398</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4816,19 +4843,19 @@
         <v>398</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>422</v>
@@ -4846,22 +4873,22 @@
         <v>398</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D22" s="1">
         <v>25</v>
@@ -4876,22 +4903,22 @@
         <v>398</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="47"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -4909,16 +4936,16 @@
         <v>438</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="M23" s="47"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>420</v>
@@ -4939,16 +4966,16 @@
         <v>438</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M24" s="47"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>420</v>
@@ -4971,17 +4998,17 @@
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -4999,19 +5026,19 @@
         <v>438</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="M26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -5029,22 +5056,22 @@
         <v>438</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="M27" s="47"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -5059,22 +5086,22 @@
         <v>438</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M28" s="47"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="M28" s="45"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -5091,17 +5118,17 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="45"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -5119,16 +5146,16 @@
         <v>438</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="M30" s="45"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>422</v>
@@ -5151,9 +5178,9 @@
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5181,14 +5208,14 @@
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="45"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>422</v>
@@ -5209,19 +5236,19 @@
         <v>438</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="M33" s="45"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D34" s="1">
         <v>720</v>
@@ -5239,16 +5266,16 @@
         <v>438</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M34" s="45"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>422</v>
@@ -5269,16 +5296,16 @@
         <v>438</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="M35" s="45"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>422</v>
@@ -5301,14 +5328,14 @@
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="47"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="45"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>422</v>
@@ -5331,17 +5358,17 @@
       <c r="J37" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M37" s="47"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="45"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -5361,17 +5388,17 @@
       <c r="J38" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M38" s="47"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="45"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -5389,19 +5416,19 @@
         <v>438</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M39" s="47"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="M39" s="45"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D40" s="1">
         <v>75</v>
@@ -5419,19 +5446,19 @@
         <v>438</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="M40" s="47"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="M40" s="45"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5451,17 +5478,17 @@
       <c r="J41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M41" s="47"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="45"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D42" s="1">
         <v>55</v>
@@ -5479,11 +5506,11 @@
         <v>438</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="M42" s="47"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="M42" s="45"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -5496,16 +5523,16 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="M43" s="47"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="M43" s="45"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>453</v>
       </c>
@@ -5518,14 +5545,14 @@
       <c r="D44" s="1">
         <v>19</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="M44" s="47"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="M44" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5545,7 +5572,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5568,7 +5595,7 @@
     <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5615,7 +5642,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5649,7 +5676,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5710,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5694,7 +5721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5705,7 +5732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5716,7 +5743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5727,7 +5754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5749,7 +5776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5760,7 +5787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5771,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5782,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5793,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5804,7 +5831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5815,7 +5842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5826,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5837,7 +5864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5848,7 +5875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5859,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5870,7 +5897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5881,7 +5908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5892,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5903,7 +5930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5914,7 +5941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5936,7 +5963,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
@@ -5954,7 +5981,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6001,7 +6028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6035,7 +6062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6069,7 +6096,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6081,7 +6108,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6092,7 +6119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6103,7 +6130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6114,7 +6141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6125,7 +6152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6136,7 +6163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6147,7 +6174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -6158,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -6169,7 +6196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -6180,7 +6207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -6191,7 +6218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -6213,7 +6240,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -6231,7 +6258,7 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6278,7 +6305,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6312,7 +6339,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6346,7 +6373,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6357,7 +6384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6368,7 +6395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,7 +6406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6390,7 +6417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6401,7 +6428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6412,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6423,7 +6450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6447,7 +6474,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="7" max="7" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -6455,7 +6482,7 @@
     <col min="11" max="11" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10">
       <c r="G2" s="24" t="s">
         <v>171</v>
       </c>
@@ -6469,7 +6496,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:10">
       <c r="G3" s="1" t="s">
         <v>338</v>
       </c>
@@ -6483,7 +6510,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:10">
       <c r="G4" s="1" t="s">
         <v>339</v>
       </c>
@@ -6497,7 +6524,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:10">
       <c r="G5" s="1" t="s">
         <v>340</v>
       </c>
@@ -6511,7 +6538,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10">
       <c r="G6" s="1" t="s">
         <v>341</v>
       </c>
@@ -6525,7 +6552,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:10">
       <c r="G7" s="1" t="s">
         <v>342</v>
       </c>
@@ -6539,7 +6566,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:10">
       <c r="G8" s="1" t="s">
         <v>343</v>
       </c>
@@ -6553,7 +6580,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:10">
       <c r="G9" s="1" t="s">
         <v>344</v>
       </c>
@@ -6567,7 +6594,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:10">
       <c r="G10" s="1" t="s">
         <v>345</v>
       </c>
@@ -6581,7 +6608,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:10">
       <c r="G11" s="1" t="s">
         <v>346</v>
       </c>
@@ -6595,7 +6622,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:10">
       <c r="G12" s="1" t="s">
         <v>347</v>
       </c>
@@ -6609,7 +6636,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:10">
       <c r="G13" s="1" t="s">
         <v>348</v>
       </c>
@@ -6623,7 +6650,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:10">
       <c r="G14" s="1" t="s">
         <v>349</v>
       </c>
@@ -6637,7 +6664,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:10">
       <c r="G15" s="1" t="s">
         <v>350</v>
       </c>
@@ -6664,7 +6691,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -6717,7 +6744,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6761,7 +6788,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6805,7 +6832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6885,7 +6912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6965,7 +6992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7045,7 +7072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -7125,7 +7152,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -7205,7 +7232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7285,7 +7312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -7365,7 +7392,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7445,7 +7472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7525,7 +7552,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7605,7 +7632,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7685,7 +7712,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7759,7 +7786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7821,7 +7848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7883,7 +7910,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7939,7 +7966,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7989,7 +8016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -8027,7 +8054,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -8059,7 +8086,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8085,7 +8112,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -8111,7 +8138,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -8137,7 +8164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -8163,7 +8190,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8189,7 +8216,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8215,7 +8242,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -8241,7 +8268,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -8255,62 +8282,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:40">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:40">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:40">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:40">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:40">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:40">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:40">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -8318,7 +8345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:40">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -8347,7 +8374,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -8366,7 +8393,7 @@
     <col min="16" max="16384" width="11.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>164</v>
       </c>
@@ -8413,7 +8440,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
       <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
@@ -8450,7 +8477,7 @@
       </c>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
@@ -8475,7 +8502,7 @@
       </c>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -8500,7 +8527,7 @@
       </c>
       <c r="O4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="30" t="s">
         <v>71</v>
       </c>
@@ -8525,7 +8552,7 @@
       </c>
       <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
@@ -8550,7 +8577,7 @@
       </c>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>37</v>
       </c>
@@ -8575,7 +8602,7 @@
       </c>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
@@ -8600,7 +8627,7 @@
       </c>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>359</v>
       </c>
@@ -8635,7 +8662,7 @@
       </c>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>361</v>
       </c>
@@ -8672,7 +8699,7 @@
       </c>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="32" t="s">
         <v>182</v>
       </c>
@@ -8709,7 +8736,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>364</v>
       </c>
@@ -8744,7 +8771,7 @@
       </c>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>366</v>
       </c>
@@ -8779,7 +8806,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>368</v>
       </c>
@@ -8814,7 +8841,7 @@
       </c>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>371</v>
       </c>
@@ -8849,7 +8876,7 @@
       </c>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15" thickBot="1">
       <c r="A16" s="40" t="s">
         <v>34</v>
       </c>
@@ -8874,7 +8901,7 @@
       </c>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
@@ -8911,7 +8938,7 @@
       </c>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>38</v>
       </c>
@@ -8948,7 +8975,7 @@
       </c>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="29.4" thickBot="1">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -8985,7 +9012,7 @@
       </c>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
@@ -9020,7 +9047,7 @@
       </c>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
         <v>163</v>
       </c>
@@ -9055,7 +9082,7 @@
       </c>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
@@ -9093,7 +9120,7 @@
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.109375" style="1" customWidth="1"/>
@@ -9111,7 +9138,7 @@
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9149,36 +9176,36 @@
         <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="43" t="s">
         <v>567</v>
       </c>
-      <c r="T1" s="43" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>490</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -9189,41 +9216,41 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="N2" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="P2" s="44" t="s">
         <v>571</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="Q2" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="R2" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="S2" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="T2" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="T2" s="44" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:20" ht="29.4" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -9256,16 +9283,16 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="50"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -9294,16 +9321,16 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="45"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="50"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -9332,16 +9359,16 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -9370,16 +9397,16 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="45"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="50"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -9408,16 +9435,16 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="45"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="50"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9448,16 +9475,16 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="50"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>456</v>
       </c>
@@ -9488,16 +9515,16 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="45"/>
-    </row>
-    <row r="10" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="50"/>
+    </row>
+    <row r="10" spans="1:20" ht="29.4" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9528,16 +9555,16 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="50"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9568,16 +9595,16 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="50"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9608,16 +9635,16 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="45"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="50"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9648,16 +9675,16 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="50"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9688,16 +9715,16 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="50"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.8" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9730,16 +9757,16 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="50"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9770,16 +9797,16 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9810,16 +9837,16 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="50"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9850,16 +9877,16 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="50"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9890,80 +9917,80 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D20" s="32">
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="F20" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1">
       <c r="A21" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>559</v>
-      </c>
       <c r="C21" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D21" s="32">
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="F21" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -9971,31 +9998,31 @@
         <v>415</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D22" s="32">
         <v>30</v>
       </c>
       <c r="E22" s="32"/>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="45"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>453</v>
       </c>
@@ -10009,30 +10036,24 @@
         <v>19</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T2:T23"/>
     <mergeCell ref="N2:N23"/>
     <mergeCell ref="P2:P23"/>
@@ -10040,6 +10061,12 @@
     <mergeCell ref="R2:R23"/>
     <mergeCell ref="S2:S23"/>
     <mergeCell ref="O2:O23"/>
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10050,11 +10077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22786F84-93FF-4517-94E3-F320613466BF}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
@@ -10071,7 +10098,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10112,7 +10139,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>471</v>
       </c>
@@ -10128,20 +10155,20 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="46" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10172,9 +10199,9 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
@@ -10205,9 +10232,9 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10236,9 +10263,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10267,9 +10294,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10298,9 +10325,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -10329,9 +10356,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -10355,24 +10382,24 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>400</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10" s="32">
         <v>20</v>
@@ -10388,16 +10415,16 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -10428,9 +10455,9 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -10461,9 +10488,9 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>102</v>
       </c>
@@ -10494,9 +10521,9 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>103</v>
       </c>
@@ -10527,14 +10554,14 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>419</v>
@@ -10562,9 +10589,9 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.8" customHeight="1" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>460</v>
       </c>
@@ -10594,9 +10621,9 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="29.4" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>88</v>
       </c>
@@ -10629,59 +10656,59 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D18" s="32">
         <v>20</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="F18" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>559</v>
-      </c>
       <c r="C19" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D19" s="32">
         <v>20</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="F19" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="32" t="s">
         <v>94</v>
       </c>
@@ -10689,24 +10716,24 @@
         <v>415</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D20" s="32">
         <v>30</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
@@ -10720,14 +10747,14 @@
         <v>19</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="M21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="M21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10747,13 +10774,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -10768,7 +10795,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10809,7 +10836,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>475</v>
       </c>
@@ -10825,17 +10852,20 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10866,13 +10896,14 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="45"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>422</v>
@@ -10880,9 +10911,7 @@
       <c r="D4" s="32">
         <v>19</v>
       </c>
-      <c r="E4" s="32">
-        <v>19</v>
-      </c>
+      <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>76</v>
       </c>
@@ -10896,8 +10925,9 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10926,8 +10956,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10956,8 +10987,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="45"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10986,8 +11018,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -11016,8 +11049,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -11041,23 +11075,24 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>400</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>578</v>
+        <v>358</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10" s="32">
         <v>20</v>
@@ -11073,15 +11108,16 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" spans="1:13" ht="29.4" thickBot="1">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -11112,8 +11148,9 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -11144,19 +11181,20 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>486</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>487</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D13" s="32">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
@@ -11169,15 +11207,16 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>405</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="58.2" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>106</v>
       </c>
@@ -11188,7 +11227,7 @@
         <v>419</v>
       </c>
       <c r="D14" s="32">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>484</v>
@@ -11210,8 +11249,9 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>107</v>
       </c>
@@ -11222,7 +11262,7 @@
         <v>419</v>
       </c>
       <c r="D15" s="32">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32" t="s">
@@ -11242,56 +11282,59 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D16" s="32">
         <v>20</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="F16" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>559</v>
-      </c>
       <c r="C17" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D17" s="32">
         <v>20</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="F17" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="32" t="s">
         <v>94</v>
       </c>
@@ -11299,21 +11342,22 @@
         <v>415</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D18" s="32">
         <v>30</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>453</v>
       </c>
@@ -11324,19 +11368,21 @@
         <v>422</v>
       </c>
       <c r="D19" s="32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="M19" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M19"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
@@ -11352,10 +11398,10 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.88671875" customWidth="1"/>
@@ -11371,7 +11417,7 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -11409,12 +11455,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -11425,17 +11471,17 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -11467,7 +11513,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" hidden="1" thickBot="1">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -11497,7 +11543,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" hidden="1" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -11527,7 +11573,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" hidden="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -11557,7 +11603,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" hidden="1" thickBot="1">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -11587,7 +11633,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -11619,7 +11665,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -11651,7 +11697,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="29.4" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -11683,7 +11729,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="32" t="s">
         <v>434</v>
       </c>
@@ -11715,7 +11761,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
@@ -11747,7 +11793,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -11779,7 +11825,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="32" t="s">
         <v>427</v>
       </c>
@@ -11811,7 +11857,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" s="32" t="s">
         <v>95</v>
       </c>
@@ -11843,7 +11889,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -11857,17 +11903,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -11881,13 +11927,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11907,7 +11953,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -11926,7 +11972,7 @@
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -11973,7 +12019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -12005,7 +12051,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12037,7 +12083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12048,7 +12094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -12059,7 +12105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12070,7 +12116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -12081,7 +12127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -12092,7 +12138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -12103,7 +12149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12114,7 +12160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -12125,7 +12171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -12140,7 +12186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -12154,7 +12200,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -12165,7 +12211,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -12176,7 +12222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -12200,7 +12246,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -12229,7 +12275,7 @@
     <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -12303,7 +12349,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12377,7 +12423,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -12387,7 +12433,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
@@ -12400,7 +12446,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -12453,7 +12499,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -12488,7 +12534,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -12523,7 +12569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -12537,7 +12583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12551,7 +12597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -12565,7 +12611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -12579,7 +12625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -12593,7 +12639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -12607,7 +12653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -12621,7 +12667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -12635,7 +12681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -12649,7 +12695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -12663,7 +12709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -12677,7 +12723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -12691,7 +12737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -12705,7 +12751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -12719,7 +12765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -12733,7 +12779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -12747,7 +12793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -12761,7 +12807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -12775,7 +12821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -12789,7 +12835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -12803,7 +12849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -12817,7 +12863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691FB95-163F-4DC0-A128-1565577E70DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC88E9-2958-4809-BC46-2D13E2A86E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="5" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="580">
   <si>
     <t>CPF</t>
   </si>
@@ -1759,9 +1759,6 @@
 where T.VALOR &gt; 0</t>
   </si>
   <si>
-    <t>( 9 , 53 )</t>
-  </si>
-  <si>
     <t>HOST (IP) DO BANCO ORIGEM</t>
   </si>
   <si>
@@ -2039,12 +2036,15 @@
 WHERE 
     CAST(A.DATA_INCLUSAO AS DATE) = CAST(GETDATE() AS DATE)</t>
   </si>
+  <si>
+    <t>( 15 , 2 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2525,6 +2525,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2539,12 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2869,15 +2869,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2888,67 +2888,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2966,37 +2966,37 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I3" s="51" t="s">
         <v>337</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="51"/>
     </row>
-    <row r="4" spans="1:25" ht="27.6">
+    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -3669,23 +3669,23 @@
       <selection activeCell="J4" sqref="J4:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>488</v>
       </c>
@@ -3742,18 +3742,18 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -3785,7 +3785,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+    <row r="5" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:13" ht="29.4" thickBot="1">
+    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1">
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>449</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>443</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+    <row r="14" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>444</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>96</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -4175,17 +4175,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -4199,13 +4199,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4219,42 +4219,42 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4308,18 +4308,18 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>503</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="M2" s="44" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4344,9 +4344,9 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4371,9 +4371,9 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4398,9 +4398,9 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4425,9 +4425,9 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>521</v>
       </c>
@@ -4455,9 +4455,9 @@
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>500</v>
       </c>
@@ -4488,9 +4488,9 @@
       <c r="J8" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4518,9 +4518,9 @@
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4548,9 +4548,9 @@
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4558,10 +4558,10 @@
         <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>421</v>
+        <v>550</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -4578,9 +4578,9 @@
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4608,9 +4608,9 @@
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>546</v>
       </c>
@@ -4638,9 +4638,9 @@
       <c r="J13" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>547</v>
       </c>
@@ -4668,9 +4668,9 @@
       <c r="J14" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4698,9 +4698,9 @@
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4728,9 +4728,9 @@
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4758,9 +4758,9 @@
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>523</v>
       </c>
@@ -4788,9 +4788,9 @@
       <c r="J18" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>548</v>
       </c>
@@ -4818,9 +4818,9 @@
       <c r="J19" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4848,9 +4848,9 @@
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>494</v>
       </c>
@@ -4878,9 +4878,9 @@
       <c r="J21" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>498</v>
       </c>
@@ -4908,9 +4908,9 @@
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="47"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>495</v>
       </c>
@@ -4938,9 +4938,9 @@
       <c r="J23" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>509</v>
       </c>
@@ -4968,9 +4968,9 @@
       <c r="J24" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="47"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
@@ -4998,9 +4998,9 @@
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>510</v>
       </c>
@@ -5028,9 +5028,9 @@
       <c r="J26" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M26" s="45"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="47"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>511</v>
       </c>
@@ -5058,9 +5058,9 @@
       <c r="J27" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="M27" s="45"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>513</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>430</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -5088,9 +5088,9 @@
       <c r="J28" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="M28" s="45"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="47"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>430</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -5118,9 +5118,9 @@
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="45"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="47"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>515</v>
       </c>
@@ -5148,9 +5148,9 @@
       <c r="J30" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M30" s="45"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="47"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>426</v>
       </c>
@@ -5178,9 +5178,9 @@
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="45"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" s="47"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5208,9 +5208,9 @@
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="45"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="47"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>516</v>
       </c>
@@ -5238,9 +5238,9 @@
       <c r="J33" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M33" s="45"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>517</v>
       </c>
@@ -5268,9 +5268,9 @@
       <c r="J34" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M34" s="45"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>518</v>
       </c>
@@ -5298,9 +5298,9 @@
       <c r="J35" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="M35" s="45"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>429</v>
       </c>
@@ -5328,9 +5328,9 @@
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="47"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>466</v>
       </c>
@@ -5358,9 +5358,9 @@
       <c r="J37" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="M37" s="45"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>437</v>
       </c>
@@ -5388,9 +5388,9 @@
       <c r="J38" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M38" s="45"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>519</v>
       </c>
@@ -5418,9 +5418,9 @@
       <c r="J39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M39" s="45"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>544</v>
       </c>
@@ -5448,9 +5448,9 @@
       <c r="J40" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M40" s="45"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>436</v>
       </c>
@@ -5478,9 +5478,9 @@
       <c r="J41" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M41" s="45"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>522</v>
       </c>
@@ -5508,58 +5508,106 @@
       <c r="J42" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M42" s="45"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1" t="s">
+      <c r="M42" s="47"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D43" s="32">
+        <v>20</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="50"/>
+      <c r="M43" s="47"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D44" s="32">
+        <v>20</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
+      <c r="M44" s="47"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C45" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="D45" s="32">
         <v>30</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="E45" s="32"/>
+      <c r="F45" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="M43" s="45"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1" t="s">
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D46" s="32">
         <v>19</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="M44" s="45"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="F43:J43"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="M2:M44"/>
+    <mergeCell ref="F45:J45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5572,30 +5620,30 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5642,7 +5690,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5676,7 +5724,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5758,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5721,7 +5769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5732,7 +5780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5743,7 +5791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5754,7 +5802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5765,7 +5813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5776,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5787,7 +5835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5798,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5809,7 +5857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5820,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5831,7 +5879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5842,7 +5890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5853,7 +5901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5864,7 +5912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5875,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5886,7 +5934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5897,7 +5945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5908,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5919,7 +5967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5930,7 +5978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5941,7 +5989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -5963,25 +6011,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6028,7 +6076,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6062,7 +6110,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6144,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6108,7 +6156,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6119,7 +6167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6130,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6152,7 +6200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6163,7 +6211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6174,7 +6222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -6185,7 +6233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -6196,7 +6244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -6207,7 +6255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -6218,7 +6266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -6240,25 +6288,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6305,7 +6353,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6339,7 +6387,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6373,7 +6421,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6384,7 +6432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6395,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6406,7 +6454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6417,7 +6465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6428,7 +6476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6439,7 +6487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6450,7 +6498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6474,15 +6522,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="7" max="7" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G2" s="24" t="s">
         <v>171</v>
       </c>
@@ -6496,7 +6544,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="7:10">
+    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>338</v>
       </c>
@@ -6510,7 +6558,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="7:10">
+    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>339</v>
       </c>
@@ -6524,7 +6572,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="7:10">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>340</v>
       </c>
@@ -6538,7 +6586,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="7:10">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>341</v>
       </c>
@@ -6552,7 +6600,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="7:10">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>342</v>
       </c>
@@ -6566,7 +6614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="7:10">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>343</v>
       </c>
@@ -6580,7 +6628,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="7:10">
+    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>344</v>
       </c>
@@ -6594,7 +6642,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="7:10">
+    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>345</v>
       </c>
@@ -6608,7 +6656,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="7:10">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>346</v>
       </c>
@@ -6622,7 +6670,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="7:10">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>347</v>
       </c>
@@ -6636,7 +6684,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="7:10">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>348</v>
       </c>
@@ -6650,7 +6698,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="7:10">
+    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>349</v>
       </c>
@@ -6664,7 +6712,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="7:10">
+    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>350</v>
       </c>
@@ -6691,60 +6739,60 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="0.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.88671875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="0.88671875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="0.88671875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0.88671875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="0.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="0.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.85546875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="0.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0.85546875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.88671875" style="1"/>
+    <col min="58" max="58" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6788,7 +6836,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6832,7 +6880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6912,7 +6960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6992,7 +7040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7072,7 +7120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -7152,7 +7200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -7232,7 +7280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7312,7 +7360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -7392,7 +7440,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7472,7 +7520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7552,7 +7600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7632,7 +7680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7712,7 +7760,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7786,7 +7834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7848,7 +7896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7910,7 +7958,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -7966,7 +8014,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -8016,7 +8064,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -8054,7 +8102,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -8086,7 +8134,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8112,7 +8160,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -8138,7 +8186,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -8164,7 +8212,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -8190,7 +8238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8216,7 +8264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8242,7 +8290,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -8268,7 +8316,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -8282,62 +8330,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -8345,7 +8393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -8374,26 +8422,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.77734375" style="1"/>
+    <col min="12" max="12" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.8" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>164</v>
       </c>
@@ -8440,7 +8488,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
@@ -8477,7 +8525,7 @@
       </c>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
@@ -8502,7 +8550,7 @@
       </c>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -8527,7 +8575,7 @@
       </c>
       <c r="O4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>71</v>
       </c>
@@ -8552,7 +8600,7 @@
       </c>
       <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
@@ -8577,7 +8625,7 @@
       </c>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>37</v>
       </c>
@@ -8602,7 +8650,7 @@
       </c>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
@@ -8627,7 +8675,7 @@
       </c>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1">
+    <row r="9" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>359</v>
       </c>
@@ -8662,7 +8710,7 @@
       </c>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>361</v>
       </c>
@@ -8699,7 +8747,7 @@
       </c>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>182</v>
       </c>
@@ -8736,7 +8784,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>364</v>
       </c>
@@ -8771,7 +8819,7 @@
       </c>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
+    <row r="13" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>366</v>
       </c>
@@ -8806,7 +8854,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>368</v>
       </c>
@@ -8841,7 +8889,7 @@
       </c>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>371</v>
       </c>
@@ -8876,7 +8924,7 @@
       </c>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>34</v>
       </c>
@@ -8901,7 +8949,7 @@
       </c>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
@@ -8938,7 +8986,7 @@
       </c>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1">
+    <row r="18" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>38</v>
       </c>
@@ -8975,7 +9023,7 @@
       </c>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="29.4" thickBot="1">
+    <row r="19" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -9012,7 +9060,7 @@
       </c>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
@@ -9047,7 +9095,7 @@
       </c>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>163</v>
       </c>
@@ -9082,7 +9130,7 @@
       </c>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
@@ -9117,28 +9165,28 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+      <selection activeCell="A20" sqref="A20:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.44140625" style="1" customWidth="1"/>
-    <col min="13" max="20" width="19.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" style="1" customWidth="1"/>
+    <col min="13" max="20" width="19.28515625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9176,31 +9224,31 @@
         <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="T1" s="43" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>488</v>
       </c>
@@ -9216,41 +9264,41 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="N2" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="O2" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="P2" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="Q2" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="R2" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="S2" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="T2" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="T2" s="49" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="29.4" thickBot="1">
+    </row>
+    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -9283,16 +9331,16 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -9321,16 +9369,16 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="50"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -9359,16 +9407,16 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="50"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -9397,16 +9445,16 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="50"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -9435,16 +9483,16 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="50"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9475,16 +9523,16 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="50"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>456</v>
       </c>
@@ -9515,16 +9563,16 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="50"/>
-    </row>
-    <row r="10" spans="1:20" ht="29.4" thickBot="1">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9555,16 +9603,16 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="50"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9595,16 +9643,16 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="50"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9635,16 +9683,16 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="50"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="45"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9675,16 +9723,16 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="50"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9715,16 +9763,16 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="50"/>
-    </row>
-    <row r="15" spans="1:20" ht="43.8" thickBot="1">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9757,16 +9805,16 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="50"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1">
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="45"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9797,16 +9845,16 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9837,16 +9885,16 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="50"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9877,16 +9925,16 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="50"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9917,21 +9965,21 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="50"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>550</v>
@@ -9940,30 +9988,30 @@
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="F20" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>557</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>558</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>550</v>
@@ -9972,25 +10020,25 @@
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="F21" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -10004,25 +10052,25 @@
         <v>30</v>
       </c>
       <c r="E22" s="32"/>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="50"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1">
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="45"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>453</v>
       </c>
@@ -10036,24 +10084,30 @@
         <v>19</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="50"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T2:T23"/>
     <mergeCell ref="N2:N23"/>
     <mergeCell ref="P2:P23"/>
@@ -10061,12 +10115,6 @@
     <mergeCell ref="R2:R23"/>
     <mergeCell ref="S2:S23"/>
     <mergeCell ref="O2:O23"/>
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10081,24 +10129,24 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10139,7 +10187,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>471</v>
       </c>
@@ -10155,20 +10203,20 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="M2" s="46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10199,9 +10247,9 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
@@ -10232,9 +10280,9 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10263,9 +10311,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10294,9 +10342,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10325,9 +10373,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -10356,9 +10404,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -10389,14 +10437,14 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>550</v>
@@ -10422,9 +10470,9 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -10455,9 +10503,9 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -10488,9 +10536,9 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>102</v>
       </c>
@@ -10521,9 +10569,9 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>103</v>
       </c>
@@ -10554,9 +10602,9 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
@@ -10589,9 +10637,9 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.8" customHeight="1" thickBot="1">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>460</v>
       </c>
@@ -10621,9 +10669,9 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="29.4" thickBot="1">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>88</v>
       </c>
@@ -10656,14 +10704,14 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>550</v>
@@ -10672,23 +10720,23 @@
         <v>20</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="F18" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>557</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>558</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>550</v>
@@ -10697,18 +10745,18 @@
         <v>20</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="F19" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>94</v>
       </c>
@@ -10722,18 +10770,18 @@
         <v>30</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="45"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>453</v>
       </c>
@@ -10747,14 +10795,14 @@
         <v>19</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="M21" s="45"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="M21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10774,28 +10822,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4DB11C-9573-4893-A458-1C975F352BD2}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10836,7 +10884,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>475</v>
       </c>
@@ -10852,20 +10900,20 @@
       <c r="E2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="44" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+      <c r="M2" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
@@ -10896,9 +10944,9 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="45"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>466</v>
       </c>
@@ -10925,9 +10973,9 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10956,9 +11004,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="45"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10987,9 +11035,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="45"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -11018,9 +11066,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -11049,9 +11097,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -11082,9 +11130,9 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
@@ -11115,9 +11163,9 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="45"/>
-    </row>
-    <row r="11" spans="1:13" ht="29.4" thickBot="1">
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -11148,9 +11196,9 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="45"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1">
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -11181,11 +11229,11 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>486</v>
@@ -11214,9 +11262,9 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" ht="58.2" thickBot="1">
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>106</v>
       </c>
@@ -11249,9 +11297,9 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>107</v>
       </c>
@@ -11282,14 +11330,14 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>550</v>
@@ -11298,23 +11346,23 @@
         <v>20</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="F16" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>557</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>558</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>550</v>
@@ -11323,18 +11371,18 @@
         <v>20</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
-        <v>559</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="F17" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1">
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>94</v>
       </c>
@@ -11348,16 +11396,16 @@
         <v>30</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>453</v>
       </c>
@@ -11371,14 +11419,14 @@
         <v>8</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="M19" s="45"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="M19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11401,23 +11449,23 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -11455,7 +11503,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>488</v>
       </c>
@@ -11471,17 +11519,17 @@
       <c r="E2" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -11513,7 +11561,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" ht="15" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -11543,7 +11591,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="15" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -11573,7 +11621,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="15" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -11603,7 +11651,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" ht="15" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -11633,7 +11681,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -11665,7 +11713,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -11697,7 +11745,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" ht="29.4" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -11729,7 +11777,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>434</v>
       </c>
@@ -11761,7 +11809,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>41</v>
       </c>
@@ -11793,7 +11841,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
@@ -11825,7 +11873,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>427</v>
       </c>
@@ -11857,7 +11905,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>95</v>
       </c>
@@ -11889,7 +11937,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>94</v>
       </c>
@@ -11903,17 +11951,17 @@
         <v>30</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>453</v>
       </c>
@@ -11927,13 +11975,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11953,26 +12001,26 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -12019,7 +12067,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -12051,7 +12099,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12083,7 +12131,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12094,7 +12142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -12105,7 +12153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12116,7 +12164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -12127,7 +12175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -12138,7 +12186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -12149,7 +12197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12160,7 +12208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -12171,7 +12219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -12186,7 +12234,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.65" customHeight="1">
+    <row r="13" spans="1:15" ht="49.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -12200,7 +12248,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -12211,7 +12259,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -12222,7 +12270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -12246,36 +12294,36 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -12349,7 +12397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12423,7 +12471,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -12433,7 +12481,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I4" s="51" t="s">
         <v>337</v>
       </c>
@@ -12446,7 +12494,7 @@
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -12499,7 +12547,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -12534,7 +12582,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -12569,7 +12617,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -12583,7 +12631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12597,7 +12645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.4" customHeight="1">
+    <row r="10" spans="1:24" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -12611,7 +12659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -12625,7 +12673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -12639,7 +12687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -12653,7 +12701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -12667,7 +12715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -12681,7 +12729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -12695,7 +12743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -12709,7 +12757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -12723,7 +12771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -12737,7 +12785,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -12751,7 +12799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -12765,7 +12813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -12779,7 +12827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -12793,7 +12841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -12807,7 +12855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -12821,7 +12869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -12835,7 +12883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -12849,7 +12897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -12863,7 +12911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>

--- a/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
+++ b/Documentos/Mapeamento das Fontes de Dados/ACTYON/MAPEAMENTO_ACTYON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Mapeamento das Fontes de Dados\ACTYON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CC88E9-2958-4809-BC46-2D13E2A86E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A119CF-F4E2-4159-8793-AF32049354B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="685" firstSheet="3" activeTab="11" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="685" firstSheet="3" activeTab="10" xr2:uid="{40AA39DE-57CF-4226-99BA-0B59FFBB7B19}"/>
   </bookViews>
   <sheets>
     <sheet name="PAINEL" sheetId="18" state="hidden" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="597">
   <si>
     <t>CPF</t>
   </si>
@@ -1346,12 +1346,6 @@
     <t>NUMERIC</t>
   </si>
   <si>
-    <t>DATA DO PRIMEIRO VENCIMENTO DO ACORDO</t>
-  </si>
-  <si>
-    <t>DATA DO VENCIMENTO ATUALIZADA DO ACORDO</t>
-  </si>
-  <si>
     <t>DataWarehouse</t>
   </si>
   <si>
@@ -1407,9 +1401,6 @@
   </si>
   <si>
     <t>OPERADOR VINCULADO AO PAGAMENTO</t>
-  </si>
-  <si>
-    <t>DATA_VENCIMENTO_ANTIGO</t>
   </si>
   <si>
     <t>DATA_INSERT</t>
@@ -2039,12 +2030,112 @@
   <si>
     <t>( 15 , 2 )</t>
   </si>
+  <si>
+    <t>QTD_NOVA_PRESTACAO</t>
+  </si>
+  <si>
+    <t>QUANTIDADE DE NOVAS PRESTAÇÕES DO ACORDO</t>
+  </si>
+  <si>
+    <t>VALOR_NOVA_PARCELA</t>
+  </si>
+  <si>
+    <t>VALOR_ENTRADA</t>
+  </si>
+  <si>
+    <t>CANCELAMENTO</t>
+  </si>
+  <si>
+    <t>DATA_LIMITE</t>
+  </si>
+  <si>
+    <t>VALOR_DESCONTO</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>VALOR DA NOVA PARCELA DO ACORDO</t>
+  </si>
+  <si>
+    <t>VALOR DE ENTRADA DO ACORDO</t>
+  </si>
+  <si>
+    <t>VALOR DE ORIGINAL DO ACORDO</t>
+  </si>
+  <si>
+    <t>VALOR DE DESCONTO DO ACORDO</t>
+  </si>
+  <si>
+    <t>MARCAÇÃO SE O ACORDO FOI CANCELADO</t>
+  </si>
+  <si>
+    <t>MARCAÇÃO DE O ACORDO FOI PAGO</t>
+  </si>
+  <si>
+    <t>DATA DE LIMITE PARA PAGAMENTO DO ACORDO</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>PAGO</t>
+  </si>
+  <si>
+    <t>QTDE_NOVA_PRESTACAO_ACORDO</t>
+  </si>
+  <si>
+    <t>SELECT 
+CAST(A.DATA_INCLUSAO AS DATETIME2) AS DATA,
+CAST(A.CONT_ID AS INT) AS COD_CRM,
+CAST(A.ACORDO_ID AS BIGINT) AS ID_ACORDO,
+CAST(B.CPF AS VARCHAR(20)) AS CPF,
+CAST(A.DEVEDOR_ID AS BIGINT) AS ID_KEY,
+CAST(A.USUARIO_INCLUSAO AS NVARCHAR(50)) AS USUARIO_ACORDO,
+CAST(A.QTDE_PRESTACAO_ACORDO AS INT) AS QTD_PRESTACAO,
+CAST(A.QTDE_NOVA_PRESTACAO_ACORDO AS INT) AS QTD_NOVA_PRESTACAO,
+CAST(A.VALOR_ACORDO AS NUMERIC(9,2)) AS VALOR_ACORDO,
+CAST(A.VALOR_NOVA_PARCELA AS NUMERIC(9,2)) AS VALOR_NOVA_PARCELA,
+CAST(A.VALOR_ENTRADA AS NUMERIC(9,2)) AS VALOR_ENTRADA,
+CAST(A.VALOR_ORIGINAL AS NUMERIC(9,2)) AS VALOR_ORIGINAL,
+CAST(A.VALOR_DESCONTO AS NUMERIC(9,2)) AS VALOR_DESCONTO,
+CAST(A.CANCEL AS BIT) AS CANCELAMENTO,
+CAST(A.PAGO AS BIT) AS PAGAMENTO,
+CAST(A.DATA_LIMITE AS DATETIME2) AS DATA_LIMITE,
+CAST('192.168.10.200' AS VARCHAR(20)) AS INSTANCIA,
+CAST('dbActyon_Meireles2' AS VARCHAR(20)) AS BANCO,
+CAST('ACTYON' AS VARCHAR(30)) AS ORIGEM
+FROM tbacordo A WITH (NOLOCK)
+LEFT JOIN tbdevedor B WITH (NOLOCK) ON A.DEVEDOR_ID = B.DEVEDOR_ID;</t>
+  </si>
+  <si>
+    <t>SELECT 
+CAST(A.DATA_PAGTO AS DATETIME2) AS DATA,
+CAST(B.CONT_ID AS INT) AS COD_CRM,
+CAST(A.ACORDO_ID AS BIGINT) AS ID_ACORDO,
+CAST(C.CPF AS VARCHAR(20)) AS CPF,
+CAST(A.TITULO_ID AS BIGINT) AS ID_KEY,
+CAST(A.USUARIO_INCLUSAO AS NVARCHAR(50)) AS USUARIO_PAGAMENTO,
+CAST(D.NOME AS NVARCHAR(150)) AS OPERADOR,
+CAST(A.TIPO_BAIXA AS INT) AS TIPO_PAGAMENTO,
+CAST(E.DESCRICAO AS NVARCHAR(100)) AS TIPO_PAGAMENTO_NOME,
+CAST(A.VALOR_RECEBIDO AS NUMERIC(9,2)) AS VALOR_PAGAMENTO,
+CAST('192.168.10.200' AS VARCHAR(20)) AS INSTANCIA,
+CAST('dbActyon_Meireles2' AS VARCHAR(20)) AS BANCO,
+CAST('ACTYON' AS VARCHAR(30)) AS ORIGEM,
+CAST(GETDATE() AS DATETIME2) AS DATA_INSERT
+FROM tbtitulo_pago A WITH (NOLOCK)
+LEFT JOIN tbtitulo B WITH (NOLOCK) ON A.TITULO_ID = B.TITULO_ID
+LEFT JOIN tbdevedor C WITH (NOLOCK) ON B.DEVEDOR_ID = C.DEVEDOR_ID
+LEFT JOIN tbcobrador D WITH (NOLOCK) ON A.COBRADOR_ID = D.COBRADOR_ID
+LEFT JOIN tbtipo_baixa E WITH (NOLOCK) ON A.TIPO_BAIXA = E.TIPO_BAIXA_ID;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2116,6 +2207,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2225,7 +2324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2390,11 +2489,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2525,11 +2633,8 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2546,8 +2651,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2869,15 +2993,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2888,67 +3012,67 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2966,37 +3090,37 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="1"/>
+    <col min="25" max="25" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -3073,7 +3197,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3150,20 +3274,20 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I3" s="51" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I3" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-    </row>
-    <row r="4" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>164</v>
       </c>
@@ -3216,7 +3340,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -3251,7 +3375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3410,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -3314,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -3328,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -3342,7 +3466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
@@ -3356,7 +3480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -3370,7 +3494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -3384,7 +3508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3401,7 +3525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -3418,7 +3542,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3435,7 +3559,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3452,7 +3576,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -3469,7 +3593,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -3486,7 +3610,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -3503,7 +3627,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3520,7 +3644,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3537,7 +3661,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,7 +3678,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -3571,7 +3695,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -3605,7 +3729,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3746,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -3639,7 +3763,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
@@ -3663,29 +3787,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5638346-13E4-4391-8323-38C7FA4704D0}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -3726,12 +3850,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -3740,20 +3864,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+        <v>454</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="56" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -3777,146 +3903,159 @@
         <v>398</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>166</v>
+        <v>396</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D4" s="32">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>397</v>
+      </c>
       <c r="H4" s="32" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>118</v>
+        <v>436</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="57"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D5" s="32">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>397</v>
+      </c>
       <c r="H5" s="32" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="D6" s="32">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>397</v>
+      </c>
       <c r="H6" s="32" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>73</v>
+      <c r="M6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D7" s="32">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="32"/>
+        <v>76</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>397</v>
+      </c>
       <c r="H7" s="32" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" s="32">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
@@ -3929,26 +4068,27 @@
         <v>398</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="57"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D9" s="32">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
@@ -3961,26 +4101,27 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+      <c r="M9" s="57"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>441</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>183</v>
+        <v>443</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
@@ -3993,26 +4134,27 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>3</v>
+        <v>445</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="57"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>419</v>
       </c>
       <c r="D11" s="32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
@@ -4025,26 +4167,27 @@
         <v>398</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D12" s="32">
-        <v>150</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
@@ -4057,161 +4200,117 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>32</v>
+        <v>439</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="D13" s="32">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>447</v>
-      </c>
+      <c r="F13" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>446</v>
+        <v>554</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>419</v>
+        <v>547</v>
       </c>
       <c r="D14" s="32">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E14" s="32"/>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="M14" s="57"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" s="32">
+        <v>30</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D15" s="32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>415</v>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D16" s="32">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="32">
-        <v>19</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="F16" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="M16" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="M2:M16"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4221,40 +4320,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE88DAFB-0E6A-4114-9298-6358DAA44DC1}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="1"/>
+    <col min="32" max="32" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -4295,12 +4394,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>299</v>
@@ -4308,18 +4407,18 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="M2" s="46" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="M2" s="45" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4336,7 +4435,7 @@
         <v>309</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>118</v>
@@ -4344,9 +4443,9 @@
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4363,7 +4462,7 @@
         <v>309</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>118</v>
@@ -4371,9 +4470,9 @@
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -4390,7 +4489,7 @@
         <v>309</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>118</v>
@@ -4398,9 +4497,9 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -4417,7 +4516,7 @@
         <v>309</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>118</v>
@@ -4425,14 +4524,14 @@
       <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>420</v>
@@ -4450,28 +4549,28 @@
         <v>398</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D8" s="1">
         <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -4483,14 +4582,14 @@
         <v>398</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4597,7 @@
         <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4513,14 +4612,14 @@
         <v>398</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -4543,14 +4642,14 @@
         <v>398</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4558,7 +4657,7 @@
         <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
@@ -4573,19 +4672,19 @@
         <v>398</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>421</v>
@@ -4603,22 +4702,22 @@
         <v>398</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D13" s="1">
         <v>55</v>
@@ -4633,22 +4732,22 @@
         <v>398</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="D14" s="1">
         <v>65</v>
@@ -4663,14 +4762,14 @@
         <v>398</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4678,7 +4777,7 @@
         <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -4693,14 +4792,14 @@
         <v>398</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4708,7 +4807,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -4723,14 +4822,14 @@
         <v>398</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4738,7 +4837,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
@@ -4753,22 +4852,22 @@
         <v>398</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D18" s="1">
         <v>150</v>
@@ -4783,22 +4882,22 @@
         <v>398</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
@@ -4813,22 +4912,22 @@
         <v>398</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4843,19 +4942,19 @@
         <v>398</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>422</v>
@@ -4873,22 +4972,22 @@
         <v>398</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D22" s="1">
         <v>25</v>
@@ -4903,22 +5002,22 @@
         <v>398</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="M22" s="47"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D23" s="1">
         <v>200</v>
@@ -4933,19 +5032,19 @@
         <v>398</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M23" s="47"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="M23" s="46"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>420</v>
@@ -4963,19 +5062,19 @@
         <v>398</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M24" s="47"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>420</v>
@@ -4993,22 +5092,22 @@
         <v>398</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D26" s="1">
         <v>30</v>
@@ -5023,22 +5122,22 @@
         <v>398</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M26" s="47"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -5053,25 +5152,25 @@
         <v>398</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="M27" s="47"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -5083,25 +5182,25 @@
         <v>398</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="M28" s="47"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -5113,22 +5212,22 @@
         <v>398</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="46"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D30" s="1">
         <v>30</v>
@@ -5143,19 +5242,19 @@
         <v>398</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="M30" s="47"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>422</v>
@@ -5173,14 +5272,14 @@
         <v>398</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="46"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -5203,19 +5302,19 @@
         <v>398</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="47"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="46"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>422</v>
@@ -5233,22 +5332,22 @@
         <v>398</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="M33" s="46"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D34" s="1">
         <v>720</v>
@@ -5263,19 +5362,19 @@
         <v>398</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M34" s="47"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>422</v>
@@ -5293,19 +5392,19 @@
         <v>398</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="M35" s="46"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>422</v>
@@ -5323,19 +5422,19 @@
         <v>398</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M36" s="47"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="46"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>422</v>
@@ -5353,22 +5452,22 @@
         <v>398</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M37" s="47"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="M37" s="46"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D38" s="1">
         <v>20</v>
@@ -5383,22 +5482,22 @@
         <v>398</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="M38" s="47"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="M38" s="46"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D39" s="1">
         <v>20</v>
@@ -5413,22 +5512,22 @@
         <v>398</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M39" s="47"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="M39" s="46"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D40" s="1">
         <v>75</v>
@@ -5443,22 +5542,22 @@
         <v>398</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M40" s="47"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5473,22 +5572,22 @@
         <v>398</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M41" s="47"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D42" s="1">
         <v>55</v>
@@ -5503,60 +5602,60 @@
         <v>398</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="M42" s="47"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="M42" s="46"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D43" s="32">
         <v>20</v>
       </c>
       <c r="E43" s="32"/>
-      <c r="F43" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="50"/>
-      <c r="M43" s="47"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
+      <c r="M43" s="46"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D44" s="32">
         <v>20</v>
       </c>
       <c r="E44" s="32"/>
-      <c r="F44" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="M44" s="47"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>94</v>
       </c>
@@ -5564,26 +5663,26 @@
         <v>415</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D45" s="32">
         <v>30</v>
       </c>
       <c r="E45" s="32"/>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>422</v>
@@ -5592,13 +5691,13 @@
         <v>19</v>
       </c>
       <c r="E46" s="32"/>
-      <c r="F46" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
+      <c r="F46" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5620,30 +5719,30 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -5690,7 +5789,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5724,7 +5823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5758,7 +5857,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5769,7 +5868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -5780,7 +5879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5791,7 +5890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -5802,7 +5901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -5813,7 +5912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -5824,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -5835,7 +5934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -5846,7 +5945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -5857,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5868,7 +5967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -5879,7 +5978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -5890,7 +5989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -5901,7 +6000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -5912,7 +6011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5923,7 +6022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -5934,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5945,7 +6044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -5956,7 +6055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5967,7 +6066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -5978,7 +6077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -5989,7 +6088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -6011,25 +6110,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6076,7 +6175,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6110,7 +6209,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6144,7 +6243,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6156,7 +6255,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6167,7 +6266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6178,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6189,7 +6288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6200,7 +6299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6211,7 +6310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6222,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -6233,7 +6332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -6244,7 +6343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -6255,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -6266,7 +6365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>125</v>
       </c>
@@ -6288,25 +6387,25 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -6353,7 +6452,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6387,7 +6486,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -6421,7 +6520,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +6531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -6443,7 +6542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -6454,7 +6553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -6465,7 +6564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6476,7 +6575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
@@ -6487,7 +6586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6498,7 +6597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -6522,15 +6621,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="7" max="7" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G2" s="24" t="s">
         <v>171</v>
       </c>
@@ -6544,7 +6643,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
         <v>338</v>
       </c>
@@ -6558,7 +6657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>339</v>
       </c>
@@ -6572,7 +6671,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5" s="1" t="s">
         <v>340</v>
       </c>
@@ -6586,7 +6685,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1" t="s">
         <v>341</v>
       </c>
@@ -6600,7 +6699,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>342</v>
       </c>
@@ -6614,7 +6713,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G8" s="1" t="s">
         <v>343</v>
       </c>
@@ -6628,7 +6727,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
         <v>344</v>
       </c>
@@ -6642,7 +6741,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="1" t="s">
         <v>345</v>
       </c>
@@ -6656,7 +6755,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G11" s="1" t="s">
         <v>346</v>
       </c>
@@ -6670,7 +6769,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G12" s="1" t="s">
         <v>347</v>
       </c>
@@ -6684,7 +6783,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G13" s="1" t="s">
         <v>348</v>
       </c>
@@ -6698,7 +6797,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G14" s="1" t="s">
         <v>349</v>
       </c>
@@ -6712,7 +6811,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
         <v>350</v>
       </c>
@@ -6739,60 +6838,60 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="0.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="0.85546875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.85546875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="0.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="0.85546875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="55" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="0.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="0.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="0.88671875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.88671875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="0.88671875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="0.88671875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.85546875" style="1"/>
+    <col min="58" max="58" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>307</v>
       </c>
@@ -6836,7 +6935,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>306</v>
       </c>
@@ -6880,7 +6979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>108</v>
       </c>
@@ -6960,7 +7059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7040,7 +7139,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7120,7 +7219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
@@ -7200,7 +7299,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>73</v>
       </c>
@@ -7280,7 +7379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -7360,7 +7459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -7440,7 +7539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7520,7 +7619,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7600,7 +7699,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7680,7 +7779,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7760,7 +7859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -7834,7 +7933,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7896,7 +7995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
@@ -7958,7 +8057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -8014,7 +8113,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -8064,7 +8163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -8102,7 +8201,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -8134,7 +8233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -8160,7 +8259,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -8186,7 +8285,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -8212,7 +8311,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -8238,7 +8337,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -8264,7 +8363,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
@@ -8290,7 +8389,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>336</v>
       </c>
@@ -8316,7 +8415,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -8330,62 +8429,62 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
@@ -8393,7 +8492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="J42" s="16"/>
@@ -8422,26 +8521,26 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="1"/>
+    <col min="12" max="12" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="50.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>164</v>
       </c>
@@ -8488,7 +8587,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
@@ -8525,7 +8624,7 @@
       </c>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
@@ -8550,7 +8649,7 @@
       </c>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -8575,7 +8674,7 @@
       </c>
       <c r="O4" s="36"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>71</v>
       </c>
@@ -8600,7 +8699,7 @@
       </c>
       <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>73</v>
       </c>
@@ -8625,7 +8724,7 @@
       </c>
       <c r="O6" s="36"/>
     </row>
-    <row r="7" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>37</v>
       </c>
@@ -8650,7 +8749,7 @@
       </c>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>0</v>
       </c>
@@ -8675,7 +8774,7 @@
       </c>
       <c r="O8" s="36"/>
     </row>
-    <row r="9" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>359</v>
       </c>
@@ -8710,7 +8809,7 @@
       </c>
       <c r="O9" s="36"/>
     </row>
-    <row r="10" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>361</v>
       </c>
@@ -8747,7 +8846,7 @@
       </c>
       <c r="O10" s="36"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>182</v>
       </c>
@@ -8784,7 +8883,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>364</v>
       </c>
@@ -8819,7 +8918,7 @@
       </c>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>366</v>
       </c>
@@ -8854,7 +8953,7 @@
       </c>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>368</v>
       </c>
@@ -8889,7 +8988,7 @@
       </c>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>371</v>
       </c>
@@ -8924,7 +9023,7 @@
       </c>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>34</v>
       </c>
@@ -8949,7 +9048,7 @@
       </c>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
@@ -8986,7 +9085,7 @@
       </c>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>38</v>
       </c>
@@ -9023,7 +9122,7 @@
       </c>
       <c r="O18" s="36"/>
     </row>
-    <row r="19" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
@@ -9060,7 +9159,7 @@
       </c>
       <c r="O19" s="36"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>12</v>
       </c>
@@ -9095,7 +9194,7 @@
       </c>
       <c r="O20" s="36"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>163</v>
       </c>
@@ -9130,7 +9229,7 @@
       </c>
       <c r="O21" s="36"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>36</v>
       </c>
@@ -9168,25 +9267,25 @@
       <selection activeCell="A20" sqref="A20:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" style="1" customWidth="1"/>
-    <col min="13" max="20" width="19.28515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.44140625" style="1" customWidth="1"/>
+    <col min="13" max="20" width="19.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -9224,36 +9323,36 @@
         <v>317</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -9262,43 +9361,43 @@
         <v>19</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+        <v>454</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="P2" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="Q2" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="R2" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="S2" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="T2" s="50" t="s">
         <v>571</v>
       </c>
-      <c r="R2" s="46" t="s">
-        <v>572</v>
-      </c>
-      <c r="S2" s="46" t="s">
-        <v>573</v>
-      </c>
-      <c r="T2" s="44" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -9331,16 +9430,16 @@
       <c r="L3" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="51"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -9359,7 +9458,7 @@
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>118</v>
@@ -9369,16 +9468,16 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="45"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="51"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -9397,7 +9496,7 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>118</v>
@@ -9407,16 +9506,16 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="51"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -9435,7 +9534,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>118</v>
@@ -9445,16 +9544,16 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="45"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="51"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -9473,7 +9572,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>118</v>
@@ -9483,16 +9582,16 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="45"/>
-    </row>
-    <row r="8" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="51"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -9523,21 +9622,21 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="51"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>421</v>
@@ -9559,20 +9658,20 @@
         <v>399</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="45"/>
-    </row>
-    <row r="10" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="51"/>
+    </row>
+    <row r="10" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>37</v>
       </c>
@@ -9603,16 +9702,16 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>119</v>
       </c>
@@ -9643,16 +9742,16 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="51"/>
+    </row>
+    <row r="12" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>120</v>
       </c>
@@ -9683,16 +9782,16 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="45"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="51"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
@@ -9723,16 +9822,16 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>43</v>
       </c>
@@ -9763,16 +9862,16 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="51"/>
+    </row>
+    <row r="15" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>408</v>
       </c>
@@ -9805,16 +9904,16 @@
         <v>414</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="51"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>409</v>
       </c>
@@ -9845,16 +9944,16 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="51"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>38</v>
       </c>
@@ -9885,16 +9984,16 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="51"/>
+    </row>
+    <row r="18" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
@@ -9925,16 +10024,16 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
@@ -9965,80 +10064,80 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="51"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D20" s="32">
         <v>20</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="F20" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="51"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D21" s="32">
         <v>20</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="F21" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="51"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -10046,36 +10145,36 @@
         <v>415</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D22" s="32">
         <v>30</v>
       </c>
       <c r="E22" s="32"/>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="45"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="51"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>422</v>
@@ -10084,30 +10183,24 @@
         <v>19</v>
       </c>
       <c r="E23" s="32"/>
-      <c r="F23" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="45"/>
+      <c r="F23" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F20:J20"/>
     <mergeCell ref="T2:T23"/>
     <mergeCell ref="N2:N23"/>
     <mergeCell ref="P2:P23"/>
@@ -10115,6 +10208,12 @@
     <mergeCell ref="R2:R23"/>
     <mergeCell ref="S2:S23"/>
     <mergeCell ref="O2:O23"/>
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10126,27 +10225,27 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A18" sqref="A18:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10187,12 +10286,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -10201,27 +10300,27 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+        <v>454</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="46" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>422</v>
@@ -10240,21 +10339,21 @@
         <v>398</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>429</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>422</v>
@@ -10273,16 +10372,16 @@
         <v>398</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10301,7 +10400,7 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>118</v>
@@ -10311,9 +10410,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -10332,7 +10431,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>118</v>
@@ -10342,9 +10441,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -10363,7 +10462,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>118</v>
@@ -10373,9 +10472,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -10394,7 +10493,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>118</v>
@@ -10404,9 +10503,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -10430,24 +10529,24 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>400</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D10" s="32">
         <v>20</v>
@@ -10463,16 +10562,16 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -10496,21 +10595,21 @@
         <v>398</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>419</v>
@@ -10529,21 +10628,21 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>401</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>419</v>
@@ -10562,21 +10661,21 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>405</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>419</v>
@@ -10595,21 +10694,21 @@
         <v>398</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>94</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>419</v>
@@ -10618,7 +10717,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>76</v>
@@ -10630,21 +10729,21 @@
         <v>398</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>420</v>
@@ -10662,30 +10761,30 @@
         <v>398</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D17" s="32">
         <v>2</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>76</v>
@@ -10697,66 +10796,66 @@
         <v>398</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D18" s="32">
         <v>20</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="F18" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D19" s="32">
         <v>20</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="F19" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>94</v>
       </c>
@@ -10764,29 +10863,29 @@
         <v>415</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D20" s="32">
         <v>30</v>
       </c>
       <c r="E20" s="32"/>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="46"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>422</v>
@@ -10795,14 +10894,14 @@
         <v>19</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="M21" s="47"/>
+      <c r="F21" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="M21" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10823,27 +10922,27 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A16" sqref="A16:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -10884,12 +10983,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -10898,27 +10997,27 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+        <v>454</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="46" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>429</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>422</v>
@@ -10937,21 +11036,21 @@
         <v>398</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>429</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>422</v>
@@ -10973,9 +11072,9 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-      <c r="M4" s="47"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -10994,7 +11093,7 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>118</v>
@@ -11004,9 +11103,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="47"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -11025,7 +11124,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>118</v>
@@ -11035,9 +11134,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>71</v>
       </c>
@@ -11056,7 +11155,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>118</v>
@@ -11066,9 +11165,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>73</v>
       </c>
@@ -11087,7 +11186,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>118</v>
@@ -11097,9 +11196,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>72</v>
       </c>
@@ -11123,16 +11222,16 @@
         <v>398</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>400</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-      <c r="M9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
@@ -11140,7 +11239,7 @@
         <v>358</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D10" s="32">
         <v>20</v>
@@ -11156,16 +11255,16 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42" t="s">
         <v>37</v>
       </c>
@@ -11189,21 +11288,21 @@
         <v>398</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>1</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>419</v>
@@ -11222,21 +11321,21 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>419</v>
@@ -11255,21 +11354,21 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>405</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>419</v>
@@ -11278,7 +11377,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>76</v>
@@ -11290,21 +11389,21 @@
         <v>398</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>419</v>
@@ -11323,66 +11422,66 @@
         <v>398</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>94</v>
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>312</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D16" s="32">
         <v>20</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="F16" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-      <c r="M16" s="47"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D17" s="32">
         <v>20</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="F17" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>94</v>
       </c>
@@ -11390,27 +11489,27 @@
         <v>415</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D18" s="32">
         <v>30</v>
       </c>
       <c r="E18" s="32"/>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>422</v>
@@ -11419,14 +11518,14 @@
         <v>8</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="M19" s="47"/>
+      <c r="F19" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="M19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11443,29 +11542,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4503D2B1-6995-4181-A579-EBD303531330}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="M2" sqref="M2:M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>164</v>
       </c>
@@ -11502,13 +11601,16 @@
       <c r="L1" s="24" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>488</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>491</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>421</v>
@@ -11517,19 +11619,22 @@
         <v>19</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+        <v>454</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
@@ -11560,8 +11665,9 @@
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
@@ -11580,7 +11686,7 @@
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>118</v>
@@ -11590,8 +11696,9 @@
       </c>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
@@ -11610,7 +11717,7 @@
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>118</v>
@@ -11620,8 +11727,9 @@
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>71</v>
       </c>
@@ -11640,7 +11748,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>118</v>
@@ -11650,8 +11758,9 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -11670,7 +11779,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>118</v>
@@ -11680,8 +11789,9 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="54"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>72</v>
       </c>
@@ -11712,8 +11822,9 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
@@ -11740,23 +11851,24 @@
         <v>424</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>37</v>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>183</v>
+        <v>358</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>421</v>
+        <v>547</v>
       </c>
       <c r="D10" s="32">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
@@ -11769,26 +11881,27 @@
         <v>398</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>434</v>
+      <c r="M10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>435</v>
+        <v>183</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D11" s="32">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32" t="s">
@@ -11804,23 +11917,24 @@
         <v>424</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D12" s="32">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32" t="s">
@@ -11833,26 +11947,27 @@
         <v>398</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D13" s="32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
@@ -11865,20 +11980,21 @@
         <v>398</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
-        <v>427</v>
+        <v>577</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>428</v>
+        <v>578</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>420</v>
@@ -11900,12 +12016,13 @@
         <v>424</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>450</v>
+        <v>594</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
         <v>95</v>
       </c>
@@ -11936,58 +12053,346 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>94</v>
+        <v>579</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>415</v>
+        <v>585</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D16" s="32">
-        <v>30</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>579</v>
+      </c>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>454</v>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>586</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D19" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D22" s="32">
         <v>19</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D23" s="32">
+        <v>20</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="32">
+        <v>20</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="32">
+        <v>30</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="32">
+        <v>19</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
+  <mergeCells count="6">
+    <mergeCell ref="M2:M26"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F26:J26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12001,26 +12406,26 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>164</v>
       </c>
@@ -12067,7 +12472,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -12099,7 +12504,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12131,7 +12536,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12142,7 +12547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -12153,7 +12558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12164,7 +12569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -12175,7 +12580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -12186,7 +12591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -12197,7 +12602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -12208,7 +12613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -12219,7 +12624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
@@ -12234,7 +12639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="49.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="49.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -12248,7 +12653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -12259,7 +12664,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -12270,7 +12675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
@@ -12294,36 +12699,36 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -12397,7 +12802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12471,7 +12876,7 @@
         <v>44566.370775462965</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -12481,20 +12886,20 @@
       <c r="O3" s="22"/>
       <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I4" s="51" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I4" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>164</v>
       </c>
@@ -12547,7 +12952,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -12582,7 +12987,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -12617,7 +13022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -12631,7 +13036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12645,7 +13050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -12659,7 +13064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -12673,7 +13078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -12687,7 +13092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -12701,7 +13106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -12715,7 +13120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -12729,7 +13134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -12743,7 +13148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -12757,7 +13162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>249</v>
       </c>
@@ -12771,7 +13176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>259</v>
       </c>
@@ -12785,7 +13190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>250</v>
       </c>
@@ -12799,7 +13204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -12813,7 +13218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -12827,7 +13232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -12841,7 +13246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -12855,7 +13260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -12869,7 +13274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -12883,7 +13288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
@@ -12897,7 +13302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -12911,7 +13316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
